--- a/reddit_posts.xlsx
+++ b/reddit_posts.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>487815</v>
+        <v>487827</v>
       </c>
       <c r="D2" t="n">
         <v>13997</v>
@@ -501,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>338183</v>
+        <v>338176</v>
       </c>
       <c r="D3" t="n">
         <v>12851</v>
@@ -524,7 +524,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>300489</v>
+        <v>300493</v>
       </c>
       <c r="D4" t="n">
         <v>23039</v>
@@ -547,7 +547,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>264678</v>
+        <v>264677</v>
       </c>
       <c r="D5" t="n">
         <v>19918</v>
@@ -570,7 +570,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>247130</v>
+        <v>247126</v>
       </c>
       <c r="D6" t="n">
         <v>4601</v>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>228309</v>
+        <v>228308</v>
       </c>
       <c r="D7" t="n">
         <v>17850</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>224536</v>
+        <v>224537</v>
       </c>
       <c r="D8" t="n">
         <v>12896</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>218626</v>
+        <v>218624</v>
       </c>
       <c r="D9" t="n">
         <v>14663</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>216267</v>
+        <v>216263</v>
       </c>
       <c r="D11" t="n">
         <v>5645</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>215175</v>
+        <v>215177</v>
       </c>
       <c r="D12" t="n">
         <v>7000</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>201915</v>
+        <v>201916</v>
       </c>
       <c r="D13" t="n">
         <v>4550</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>197711</v>
+        <v>197720</v>
       </c>
       <c r="D14" t="n">
         <v>6816</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>194068</v>
+        <v>194069</v>
       </c>
       <c r="D15" t="n">
         <v>2771</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>190009</v>
+        <v>190010</v>
       </c>
       <c r="D16" t="n">
         <v>3808</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>189722</v>
+        <v>189719</v>
       </c>
       <c r="D17" t="n">
         <v>2376</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>186413</v>
+        <v>186424</v>
       </c>
       <c r="D18" t="n">
         <v>3467</v>
@@ -877,7 +877,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>182249</v>
+        <v>182243</v>
       </c>
       <c r="D19" t="n">
         <v>4357</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>181019</v>
+        <v>181017</v>
       </c>
       <c r="D20" t="n">
         <v>2413</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>177327</v>
+        <v>177333</v>
       </c>
       <c r="D21" t="n">
         <v>6431</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>175728</v>
+        <v>175735</v>
       </c>
       <c r="D22" t="n">
         <v>17883</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>173632</v>
+        <v>173634</v>
       </c>
       <c r="D23" t="n">
         <v>4134</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>173417</v>
+        <v>173415</v>
       </c>
       <c r="D24" t="n">
         <v>3728</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>171919</v>
+        <v>171920</v>
       </c>
       <c r="D25" t="n">
         <v>8075</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>167023</v>
+        <v>167024</v>
       </c>
       <c r="D27" t="n">
         <v>5911</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>161685</v>
+        <v>161686</v>
       </c>
       <c r="D28" t="n">
         <v>17434</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>161217</v>
+        <v>161220</v>
       </c>
       <c r="D29" t="n">
         <v>5719</v>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>159698</v>
+        <v>159696</v>
       </c>
       <c r="D30" t="n">
         <v>26323</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>159054</v>
+        <v>159058</v>
       </c>
       <c r="D31" t="n">
         <v>4888</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>157787</v>
+        <v>157789</v>
       </c>
       <c r="D32" t="n">
         <v>2775</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>156284</v>
+        <v>156277</v>
       </c>
       <c r="D33" t="n">
         <v>4097</v>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>155053</v>
+        <v>155055</v>
       </c>
       <c r="D34" t="n">
         <v>2771</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>152438</v>
+        <v>152432</v>
       </c>
       <c r="D35" t="n">
         <v>5898</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>149184</v>
+        <v>149180</v>
       </c>
       <c r="D38" t="n">
         <v>6039</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>147955</v>
+        <v>147958</v>
       </c>
       <c r="D39" t="n">
         <v>9963</v>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>147457</v>
+        <v>147460</v>
       </c>
       <c r="D40" t="n">
         <v>5766</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>146842</v>
+        <v>146840</v>
       </c>
       <c r="D41" t="n">
         <v>5144</v>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>145306</v>
+        <v>145303</v>
       </c>
       <c r="D42" t="n">
         <v>6971</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>145256</v>
+        <v>145248</v>
       </c>
       <c r="D43" t="n">
         <v>7843</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>144852</v>
+        <v>144850</v>
       </c>
       <c r="D44" t="n">
         <v>1971</v>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>144051</v>
+        <v>144045</v>
       </c>
       <c r="D45" t="n">
         <v>7614</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>142506</v>
+        <v>142502</v>
       </c>
       <c r="D46" t="n">
         <v>2376</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>141774</v>
+        <v>141777</v>
       </c>
       <c r="D47" t="n">
         <v>2358</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>140590</v>
+        <v>140597</v>
       </c>
       <c r="D48" t="n">
         <v>2447</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>140103</v>
+        <v>140106</v>
       </c>
       <c r="D49" t="n">
         <v>9326</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>139423</v>
+        <v>139424</v>
       </c>
       <c r="D50" t="n">
         <v>6804</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>134677</v>
+        <v>134681</v>
       </c>
       <c r="D51" t="n">
         <v>5083</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>133450</v>
+        <v>133448</v>
       </c>
       <c r="D52" t="n">
         <v>2312</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>132804</v>
+        <v>132793</v>
       </c>
       <c r="D53" t="n">
         <v>3224</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>130343</v>
+        <v>130337</v>
       </c>
       <c r="D55" t="n">
         <v>8071</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>129976</v>
+        <v>129970</v>
       </c>
       <c r="D56" t="n">
         <v>5633</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>129615</v>
+        <v>129617</v>
       </c>
       <c r="D57" t="n">
         <v>2516</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>129007</v>
+        <v>129009</v>
       </c>
       <c r="D58" t="n">
         <v>8614</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>128371</v>
+        <v>128367</v>
       </c>
       <c r="D59" t="n">
         <v>3256</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>127657</v>
+        <v>127664</v>
       </c>
       <c r="D60" t="n">
         <v>5938</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>126538</v>
+        <v>126534</v>
       </c>
       <c r="D62" t="n">
         <v>3351</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>124011</v>
+        <v>124013</v>
       </c>
       <c r="D63" t="n">
         <v>2699</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>122626</v>
+        <v>122629</v>
       </c>
       <c r="D65" t="n">
         <v>2780</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>121645</v>
+        <v>121638</v>
       </c>
       <c r="D66" t="n">
         <v>1042</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>120933</v>
+        <v>120929</v>
       </c>
       <c r="D67" t="n">
         <v>27132</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>120684</v>
+        <v>120686</v>
       </c>
       <c r="D68" t="n">
         <v>12396</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>120630</v>
+        <v>120623</v>
       </c>
       <c r="D69" t="n">
         <v>1102</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>117429</v>
+        <v>117431</v>
       </c>
       <c r="D70" t="n">
         <v>1332</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>117153</v>
+        <v>117152</v>
       </c>
       <c r="D71" t="n">
         <v>1339</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>117118</v>
+        <v>117119</v>
       </c>
       <c r="D72" t="n">
         <v>5046</v>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>115599</v>
+        <v>115601</v>
       </c>
       <c r="D73" t="n">
         <v>2394</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>114487</v>
+        <v>114488</v>
       </c>
       <c r="D75" t="n">
         <v>1903</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>114089</v>
+        <v>114082</v>
       </c>
       <c r="D76" t="n">
         <v>1246</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>112699</v>
+        <v>112694</v>
       </c>
       <c r="D77" t="n">
         <v>5607</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>112536</v>
+        <v>112534</v>
       </c>
       <c r="D78" t="n">
         <v>3778</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>112292</v>
+        <v>112295</v>
       </c>
       <c r="D79" t="n">
         <v>1820</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>111961</v>
+        <v>111967</v>
       </c>
       <c r="D80" t="n">
         <v>3427</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>110375</v>
+        <v>110378</v>
       </c>
       <c r="D81" t="n">
         <v>3937</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>110056</v>
+        <v>110061</v>
       </c>
       <c r="D82" t="n">
         <v>3251</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>109792</v>
+        <v>109799</v>
       </c>
       <c r="D83" t="n">
         <v>1759</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>108606</v>
+        <v>108599</v>
       </c>
       <c r="D84" t="n">
         <v>2602</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>108305</v>
+        <v>108299</v>
       </c>
       <c r="D85" t="n">
         <v>2201</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>108236</v>
+        <v>108234</v>
       </c>
       <c r="D86" t="n">
         <v>2133</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>108100</v>
+        <v>108096</v>
       </c>
       <c r="D87" t="n">
         <v>2028</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>107614</v>
+        <v>107616</v>
       </c>
       <c r="D88" t="n">
         <v>4022</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>107370</v>
+        <v>107363</v>
       </c>
       <c r="D89" t="n">
         <v>1757</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>107069</v>
+        <v>107073</v>
       </c>
       <c r="D90" t="n">
         <v>1563</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>106376</v>
+        <v>106381</v>
       </c>
       <c r="D91" t="n">
         <v>7114</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>105242</v>
+        <v>105229</v>
       </c>
       <c r="D92" t="n">
         <v>5080</v>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>105146</v>
+        <v>105152</v>
       </c>
       <c r="D93" t="n">
         <v>5896</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>104471</v>
+        <v>104463</v>
       </c>
       <c r="D94" t="n">
         <v>3986</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>103928</v>
+        <v>103926</v>
       </c>
       <c r="D95" t="n">
         <v>1661</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>102887</v>
+        <v>102883</v>
       </c>
       <c r="D96" t="n">
         <v>2205</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>102791</v>
+        <v>102802</v>
       </c>
       <c r="D97" t="n">
         <v>5082</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>102180</v>
+        <v>102186</v>
       </c>
       <c r="D98" t="n">
         <v>5913</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>102113</v>
+        <v>102120</v>
       </c>
       <c r="D99" t="n">
         <v>5705</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>101601</v>
+        <v>101596</v>
       </c>
       <c r="D100" t="n">
         <v>2481</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>101404</v>
+        <v>101406</v>
       </c>
       <c r="D101" t="n">
         <v>14337</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>101260</v>
+        <v>101264</v>
       </c>
       <c r="D102" t="n">
         <v>3285</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>100791</v>
+        <v>100790</v>
       </c>
       <c r="D103" t="n">
         <v>3111</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>99451</v>
+        <v>99461</v>
       </c>
       <c r="D105" t="n">
         <v>3334</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>99380</v>
+        <v>99374</v>
       </c>
       <c r="D106" t="n">
         <v>2708</v>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>98727</v>
+        <v>98733</v>
       </c>
       <c r="D107" t="n">
         <v>6713</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>98626</v>
+        <v>98620</v>
       </c>
       <c r="D108" t="n">
         <v>1377</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>98520</v>
+        <v>98522</v>
       </c>
       <c r="D109" t="n">
         <v>6232</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>98410</v>
+        <v>98409</v>
       </c>
       <c r="D110" t="n">
         <v>2637</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>97303</v>
+        <v>97307</v>
       </c>
       <c r="D111" t="n">
         <v>2632</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>96537</v>
+        <v>96539</v>
       </c>
       <c r="D112" t="n">
         <v>6109</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>96049</v>
+        <v>96053</v>
       </c>
       <c r="D113" t="n">
         <v>1023</v>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>95711</v>
+        <v>95713</v>
       </c>
       <c r="D114" t="n">
         <v>2477</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>95711</v>
+        <v>95704</v>
       </c>
       <c r="D115" t="n">
         <v>1993</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>94853</v>
+        <v>94844</v>
       </c>
       <c r="D116" t="n">
         <v>1637</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>94627</v>
+        <v>94635</v>
       </c>
       <c r="D117" t="n">
         <v>1618</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>93752</v>
+        <v>93738</v>
       </c>
       <c r="D118" t="n">
         <v>1461</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>93515</v>
+        <v>93521</v>
       </c>
       <c r="D119" t="n">
         <v>1832</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>93111</v>
+        <v>93109</v>
       </c>
       <c r="D120" t="n">
         <v>1243</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>92927</v>
+        <v>92925</v>
       </c>
       <c r="D121" t="n">
         <v>9082</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>92309</v>
+        <v>92300</v>
       </c>
       <c r="D123" t="n">
         <v>2139</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>91674</v>
+        <v>91672</v>
       </c>
       <c r="D124" t="n">
         <v>2487</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>91597</v>
+        <v>91599</v>
       </c>
       <c r="D125" t="n">
         <v>1984</v>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>90804</v>
+        <v>90817</v>
       </c>
       <c r="D126" t="n">
         <v>1104</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>90619</v>
+        <v>90623</v>
       </c>
       <c r="D127" t="n">
         <v>850</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>90526</v>
+        <v>90523</v>
       </c>
       <c r="D128" t="n">
         <v>3250</v>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>89975</v>
+        <v>89973</v>
       </c>
       <c r="D129" t="n">
         <v>3286</v>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>89587</v>
+        <v>89584</v>
       </c>
       <c r="D131" t="n">
         <v>1187</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>89301</v>
+        <v>89306</v>
       </c>
       <c r="D132" t="n">
         <v>1845</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>89268</v>
+        <v>89262</v>
       </c>
       <c r="D133" t="n">
         <v>1808</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>88936</v>
+        <v>88934</v>
       </c>
       <c r="D134" t="n">
         <v>1131</v>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>88293</v>
+        <v>88300</v>
       </c>
       <c r="D135" t="n">
         <v>970</v>
@@ -3657,10 +3657,10 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>87873</v>
+        <v>87863</v>
       </c>
       <c r="D136" t="n">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E136" t="n">
         <v>1613780138</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>87718</v>
+        <v>87716</v>
       </c>
       <c r="D137" t="n">
         <v>3661</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>87682</v>
+        <v>87679</v>
       </c>
       <c r="D138" t="n">
         <v>848</v>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>87362</v>
+        <v>87363</v>
       </c>
       <c r="D139" t="n">
         <v>5329</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>87325</v>
+        <v>87318</v>
       </c>
       <c r="D140" t="n">
         <v>2692</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>87265</v>
+        <v>87263</v>
       </c>
       <c r="D141" t="n">
         <v>1906</v>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>87164</v>
+        <v>87165</v>
       </c>
       <c r="D142" t="n">
         <v>1791</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>87140</v>
+        <v>87145</v>
       </c>
       <c r="D143" t="n">
         <v>1952</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>87114</v>
+        <v>87120</v>
       </c>
       <c r="D144" t="n">
         <v>2354</v>
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>86771</v>
+        <v>86778</v>
       </c>
       <c r="D145" t="n">
         <v>3832</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>86522</v>
+        <v>86511</v>
       </c>
       <c r="D147" t="n">
         <v>1063</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>86369</v>
+        <v>86374</v>
       </c>
       <c r="D149" t="n">
         <v>2583</v>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>86276</v>
+        <v>86282</v>
       </c>
       <c r="D150" t="n">
         <v>1815</v>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>86205</v>
+        <v>86199</v>
       </c>
       <c r="D151" t="n">
         <v>1403</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>86190</v>
+        <v>86188</v>
       </c>
       <c r="D152" t="n">
         <v>1554</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>86024</v>
+        <v>86032</v>
       </c>
       <c r="D153" t="n">
         <v>766</v>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>86023</v>
+        <v>86022</v>
       </c>
       <c r="D154" t="n">
         <v>2019</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>86009</v>
+        <v>86015</v>
       </c>
       <c r="D155" t="n">
         <v>2955</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>85572</v>
+        <v>85582</v>
       </c>
       <c r="D156" t="n">
         <v>1212</v>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>85518</v>
+        <v>85527</v>
       </c>
       <c r="D157" t="n">
         <v>1208</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>85515</v>
+        <v>85517</v>
       </c>
       <c r="D158" t="n">
         <v>76860</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>85497</v>
+        <v>85485</v>
       </c>
       <c r="D159" t="n">
         <v>2232</v>
@@ -4314,7 +4314,7 @@
         <v>85441</v>
       </c>
       <c r="D160" t="n">
-        <v>20838</v>
+        <v>20837</v>
       </c>
       <c r="E160" t="n">
         <v>1611845865</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>85109</v>
+        <v>85115</v>
       </c>
       <c r="D161" t="n">
         <v>1342</v>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>85057</v>
+        <v>85056</v>
       </c>
       <c r="D162" t="n">
         <v>1201</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>84709</v>
+        <v>84706</v>
       </c>
       <c r="D163" t="n">
         <v>2889</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>84317</v>
+        <v>84320</v>
       </c>
       <c r="D164" t="n">
         <v>2579</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>84187</v>
+        <v>84188</v>
       </c>
       <c r="D165" t="n">
         <v>6059</v>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>83913</v>
+        <v>83906</v>
       </c>
       <c r="D167" t="n">
         <v>1657</v>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>83772</v>
+        <v>83769</v>
       </c>
       <c r="D169" t="n">
         <v>1950</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>83032</v>
+        <v>83034</v>
       </c>
       <c r="D170" t="n">
         <v>895</v>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>83019</v>
+        <v>83009</v>
       </c>
       <c r="D171" t="n">
         <v>2596</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>82467</v>
+        <v>82472</v>
       </c>
       <c r="D172" t="n">
         <v>1042</v>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>82132</v>
+        <v>82144</v>
       </c>
       <c r="D173" t="n">
         <v>1826</v>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>82122</v>
+        <v>82126</v>
       </c>
       <c r="D174" t="n">
         <v>1569</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>81781</v>
+        <v>81772</v>
       </c>
       <c r="D175" t="n">
         <v>1708</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>81729</v>
+        <v>81720</v>
       </c>
       <c r="D176" t="n">
         <v>1467</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>81473</v>
+        <v>81477</v>
       </c>
       <c r="D177" t="n">
         <v>4226</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>81247</v>
+        <v>81245</v>
       </c>
       <c r="D178" t="n">
         <v>1210</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>81192</v>
+        <v>81198</v>
       </c>
       <c r="D179" t="n">
         <v>722</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>81178</v>
+        <v>81180</v>
       </c>
       <c r="D180" t="n">
         <v>2522</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>80756</v>
+        <v>80760</v>
       </c>
       <c r="D181" t="n">
         <v>888</v>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>80655</v>
+        <v>80651</v>
       </c>
       <c r="D182" t="n">
         <v>4819</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>80496</v>
+        <v>80492</v>
       </c>
       <c r="D183" t="n">
         <v>1385</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>80091</v>
+        <v>80082</v>
       </c>
       <c r="D184" t="n">
         <v>4942</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>79967</v>
+        <v>79962</v>
       </c>
       <c r="D185" t="n">
         <v>1335</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>79679</v>
+        <v>79675</v>
       </c>
       <c r="D186" t="n">
         <v>841</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>79569</v>
+        <v>79565</v>
       </c>
       <c r="D187" t="n">
         <v>837</v>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>79533</v>
+        <v>79538</v>
       </c>
       <c r="D188" t="n">
         <v>2827</v>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>79308</v>
+        <v>79299</v>
       </c>
       <c r="D189" t="n">
         <v>1194</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>79024</v>
+        <v>79022</v>
       </c>
       <c r="D190" t="n">
         <v>970</v>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>78969</v>
+        <v>78964</v>
       </c>
       <c r="D191" t="n">
         <v>1428</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>78745</v>
+        <v>78742</v>
       </c>
       <c r="D192" t="n">
         <v>880</v>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>78502</v>
+        <v>78503</v>
       </c>
       <c r="D194" t="n">
         <v>1426</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>78273</v>
+        <v>78277</v>
       </c>
       <c r="D195" t="n">
         <v>1359</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>78082</v>
+        <v>78077</v>
       </c>
       <c r="D196" t="n">
         <v>1093</v>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>77895</v>
+        <v>77896</v>
       </c>
       <c r="D197" t="n">
         <v>3152</v>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>77705</v>
+        <v>77706</v>
       </c>
       <c r="D198" t="n">
         <v>2572</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>77624</v>
+        <v>77613</v>
       </c>
       <c r="D199" t="n">
         <v>961</v>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>77556</v>
+        <v>77561</v>
       </c>
       <c r="D200" t="n">
         <v>2154</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>77402</v>
+        <v>77395</v>
       </c>
       <c r="D201" t="n">
         <v>1819</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>77391</v>
+        <v>77383</v>
       </c>
       <c r="D202" t="n">
         <v>1349</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>77282</v>
+        <v>77285</v>
       </c>
       <c r="D203" t="n">
         <v>5363</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>77238</v>
+        <v>77239</v>
       </c>
       <c r="D204" t="n">
         <v>2569</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>77094</v>
+        <v>77102</v>
       </c>
       <c r="D205" t="n">
         <v>737</v>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>77051</v>
+        <v>77054</v>
       </c>
       <c r="D206" t="n">
         <v>1183</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>76883</v>
+        <v>76882</v>
       </c>
       <c r="D207" t="n">
         <v>2374</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>76755</v>
+        <v>76742</v>
       </c>
       <c r="D208" t="n">
         <v>1643</v>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>76585</v>
+        <v>76577</v>
       </c>
       <c r="D209" t="n">
         <v>4783</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>76490</v>
+        <v>76492</v>
       </c>
       <c r="D210" t="n">
         <v>1290</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>75946</v>
+        <v>75949</v>
       </c>
       <c r="D211" t="n">
         <v>1980</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>75379</v>
+        <v>75375</v>
       </c>
       <c r="D212" t="n">
         <v>614</v>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>75358</v>
+        <v>75363</v>
       </c>
       <c r="D213" t="n">
         <v>2698</v>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>75186</v>
+        <v>75178</v>
       </c>
       <c r="D215" t="n">
         <v>1393</v>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>75144</v>
+        <v>75146</v>
       </c>
       <c r="D216" t="n">
         <v>3890</v>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>74953</v>
+        <v>74961</v>
       </c>
       <c r="D217" t="n">
         <v>1255</v>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>74937</v>
+        <v>74949</v>
       </c>
       <c r="D218" t="n">
         <v>3814</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>74864</v>
+        <v>74855</v>
       </c>
       <c r="D219" t="n">
         <v>3156</v>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>74732</v>
+        <v>74740</v>
       </c>
       <c r="D220" t="n">
         <v>2570</v>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>74736</v>
+        <v>74733</v>
       </c>
       <c r="D221" t="n">
         <v>1346</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>74600</v>
+        <v>74598</v>
       </c>
       <c r="D222" t="n">
         <v>3019</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>74581</v>
+        <v>74585</v>
       </c>
       <c r="D223" t="n">
         <v>1841</v>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>73736</v>
+        <v>73740</v>
       </c>
       <c r="D224" t="n">
         <v>2524</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>73729</v>
+        <v>73733</v>
       </c>
       <c r="D225" t="n">
         <v>3004</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>73650</v>
+        <v>73647</v>
       </c>
       <c r="D226" t="n">
         <v>1536</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>73565</v>
+        <v>73568</v>
       </c>
       <c r="D227" t="n">
         <v>1388</v>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>73356</v>
+        <v>73361</v>
       </c>
       <c r="D228" t="n">
         <v>4129</v>
@@ -6109,7 +6109,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>73289</v>
+        <v>73295</v>
       </c>
       <c r="D229" t="n">
         <v>4671</v>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>73254</v>
+        <v>73244</v>
       </c>
       <c r="D230" t="n">
         <v>3364</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>73236</v>
+        <v>73240</v>
       </c>
       <c r="D231" t="n">
         <v>1938</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>72977</v>
+        <v>72967</v>
       </c>
       <c r="D232" t="n">
         <v>601</v>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>72123</v>
+        <v>72111</v>
       </c>
       <c r="D234" t="n">
         <v>1670</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>71967</v>
+        <v>71961</v>
       </c>
       <c r="D235" t="n">
         <v>2010</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>71837</v>
+        <v>71833</v>
       </c>
       <c r="D236" t="n">
         <v>716</v>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>71512</v>
+        <v>71511</v>
       </c>
       <c r="D238" t="n">
         <v>1193</v>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>71457</v>
+        <v>71467</v>
       </c>
       <c r="D239" t="n">
         <v>690</v>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>71395</v>
+        <v>71393</v>
       </c>
       <c r="D240" t="n">
         <v>4681</v>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>71229</v>
+        <v>71233</v>
       </c>
       <c r="D242" t="n">
         <v>2467</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>71150</v>
+        <v>71140</v>
       </c>
       <c r="D243" t="n">
         <v>5291</v>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>71079</v>
+        <v>71084</v>
       </c>
       <c r="D244" t="n">
         <v>1982</v>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>70785</v>
+        <v>70786</v>
       </c>
       <c r="D245" t="n">
         <v>489</v>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>70623</v>
+        <v>70622</v>
       </c>
       <c r="D246" t="n">
         <v>1431</v>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>70606</v>
+        <v>70604</v>
       </c>
       <c r="D247" t="n">
         <v>1038</v>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>70461</v>
+        <v>70469</v>
       </c>
       <c r="D248" t="n">
         <v>2596</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>70132</v>
+        <v>70126</v>
       </c>
       <c r="D249" t="n">
         <v>1973</v>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="n">
-        <v>70017</v>
+        <v>70014</v>
       </c>
       <c r="D250" t="n">
         <v>2315</v>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
-        <v>69972</v>
+        <v>69967</v>
       </c>
       <c r="D251" t="n">
         <v>850</v>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="n">
-        <v>69867</v>
+        <v>69862</v>
       </c>
       <c r="D252" t="n">
         <v>1075</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="n">
-        <v>69748</v>
+        <v>69743</v>
       </c>
       <c r="D253" t="n">
         <v>1587</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="n">
-        <v>69729</v>
+        <v>69733</v>
       </c>
       <c r="D254" t="n">
         <v>4166</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
-        <v>69514</v>
+        <v>69513</v>
       </c>
       <c r="D255" t="n">
         <v>1296</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="n">
-        <v>69465</v>
+        <v>69463</v>
       </c>
       <c r="D256" t="n">
         <v>1204</v>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
-        <v>69465</v>
+        <v>69458</v>
       </c>
       <c r="D257" t="n">
         <v>1314</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
-        <v>69324</v>
+        <v>69323</v>
       </c>
       <c r="D258" t="n">
         <v>1275</v>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
-        <v>69288</v>
+        <v>69293</v>
       </c>
       <c r="D259" t="n">
         <v>5491</v>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>69258</v>
+        <v>69257</v>
       </c>
       <c r="D260" t="n">
         <v>4100</v>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="n">
-        <v>68980</v>
+        <v>68969</v>
       </c>
       <c r="D261" t="n">
         <v>899</v>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>68952</v>
+        <v>68953</v>
       </c>
       <c r="D262" t="n">
         <v>2041</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
-        <v>68822</v>
+        <v>68832</v>
       </c>
       <c r="D263" t="n">
         <v>1898</v>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
-        <v>68824</v>
+        <v>68821</v>
       </c>
       <c r="D264" t="n">
         <v>1438</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="n">
-        <v>68773</v>
+        <v>68777</v>
       </c>
       <c r="D265" t="n">
         <v>2253</v>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
-        <v>68729</v>
+        <v>68730</v>
       </c>
       <c r="D266" t="n">
         <v>1107</v>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
-        <v>68622</v>
+        <v>68627</v>
       </c>
       <c r="D267" t="n">
         <v>3722</v>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>68602</v>
+        <v>68607</v>
       </c>
       <c r="D268" t="n">
         <v>7865</v>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
-        <v>68553</v>
+        <v>68557</v>
       </c>
       <c r="D269" t="n">
         <v>5897</v>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>68312</v>
+        <v>68317</v>
       </c>
       <c r="D271" t="n">
         <v>595</v>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
-        <v>68110</v>
+        <v>68118</v>
       </c>
       <c r="D272" t="n">
         <v>1942</v>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
-        <v>67964</v>
+        <v>67962</v>
       </c>
       <c r="D273" t="n">
         <v>3262</v>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
-        <v>67946</v>
+        <v>67939</v>
       </c>
       <c r="D274" t="n">
         <v>1284</v>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
-        <v>67922</v>
+        <v>67919</v>
       </c>
       <c r="D275" t="n">
         <v>1034</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
-        <v>67879</v>
+        <v>67884</v>
       </c>
       <c r="D276" t="n">
         <v>19616</v>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
-        <v>67834</v>
+        <v>67835</v>
       </c>
       <c r="D277" t="n">
         <v>1651</v>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>67765</v>
+        <v>67770</v>
       </c>
       <c r="D278" t="n">
         <v>2730</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
-        <v>67669</v>
+        <v>67678</v>
       </c>
       <c r="D279" t="n">
         <v>1300</v>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
-        <v>67522</v>
+        <v>67520</v>
       </c>
       <c r="D280" t="n">
         <v>2098</v>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
-        <v>67422</v>
+        <v>67424</v>
       </c>
       <c r="D281" t="n">
         <v>1361</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
-        <v>67331</v>
+        <v>67328</v>
       </c>
       <c r="D282" t="n">
         <v>1484</v>
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>67269</v>
+        <v>67272</v>
       </c>
       <c r="D283" t="n">
         <v>2426</v>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
-        <v>67250</v>
+        <v>67253</v>
       </c>
       <c r="D284" t="n">
         <v>2044</v>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="n">
-        <v>66965</v>
+        <v>66964</v>
       </c>
       <c r="D286" t="n">
         <v>3953</v>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
-        <v>66906</v>
+        <v>66897</v>
       </c>
       <c r="D287" t="n">
         <v>2567</v>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
-        <v>66723</v>
+        <v>66725</v>
       </c>
       <c r="D288" t="n">
         <v>2028</v>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="n">
-        <v>66624</v>
+        <v>66632</v>
       </c>
       <c r="D289" t="n">
         <v>835</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
-        <v>66502</v>
+        <v>66497</v>
       </c>
       <c r="D291" t="n">
         <v>1624</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
-        <v>65843</v>
+        <v>65848</v>
       </c>
       <c r="D292" t="n">
         <v>3199</v>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
-        <v>65843</v>
+        <v>65836</v>
       </c>
       <c r="D293" t="n">
         <v>4147</v>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
-        <v>65806</v>
+        <v>65814</v>
       </c>
       <c r="D294" t="n">
         <v>1016</v>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
-        <v>65787</v>
+        <v>65786</v>
       </c>
       <c r="D295" t="n">
         <v>742</v>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
-        <v>65494</v>
+        <v>65487</v>
       </c>
       <c r="D296" t="n">
         <v>4704</v>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="n">
-        <v>65185</v>
+        <v>65194</v>
       </c>
       <c r="D297" t="n">
         <v>1112</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
-        <v>65091</v>
+        <v>65097</v>
       </c>
       <c r="D298" t="n">
         <v>765</v>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="n">
-        <v>65055</v>
+        <v>65052</v>
       </c>
       <c r="D299" t="n">
         <v>3492</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="n">
-        <v>64919</v>
+        <v>64913</v>
       </c>
       <c r="D300" t="n">
         <v>1079</v>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="n">
-        <v>64910</v>
+        <v>64913</v>
       </c>
       <c r="D301" t="n">
         <v>1464</v>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="n">
-        <v>64839</v>
+        <v>64847</v>
       </c>
       <c r="D302" t="n">
         <v>2770</v>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="n">
-        <v>64673</v>
+        <v>64680</v>
       </c>
       <c r="D303" t="n">
         <v>1045</v>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="n">
-        <v>64554</v>
+        <v>64559</v>
       </c>
       <c r="D304" t="n">
         <v>2301</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="n">
-        <v>64452</v>
+        <v>64458</v>
       </c>
       <c r="D305" t="n">
         <v>851</v>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="n">
-        <v>64453</v>
+        <v>64457</v>
       </c>
       <c r="D306" t="n">
         <v>3712</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="n">
-        <v>64352</v>
+        <v>64356</v>
       </c>
       <c r="D307" t="n">
         <v>4304</v>
@@ -8030,10 +8030,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>64154</v>
+        <v>64144</v>
       </c>
       <c r="D308" t="n">
-        <v>64918</v>
+        <v>64917</v>
       </c>
       <c r="E308" t="n">
         <v>1611851237</v>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="n">
-        <v>64059</v>
+        <v>64069</v>
       </c>
       <c r="D309" t="n">
         <v>3517</v>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="n">
-        <v>63995</v>
+        <v>63987</v>
       </c>
       <c r="D310" t="n">
         <v>1357</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="n">
-        <v>63963</v>
+        <v>63971</v>
       </c>
       <c r="D311" t="n">
         <v>1840</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="n">
-        <v>63794</v>
+        <v>63791</v>
       </c>
       <c r="D312" t="n">
         <v>362</v>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="n">
-        <v>63791</v>
+        <v>63794</v>
       </c>
       <c r="D313" t="n">
         <v>1633</v>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="n">
-        <v>63752</v>
+        <v>63742</v>
       </c>
       <c r="D314" t="n">
         <v>873</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="n">
-        <v>63709</v>
+        <v>63716</v>
       </c>
       <c r="D315" t="n">
         <v>1243</v>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="n">
-        <v>63685</v>
+        <v>63678</v>
       </c>
       <c r="D316" t="n">
         <v>1555</v>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="n">
-        <v>63626</v>
+        <v>63637</v>
       </c>
       <c r="D317" t="n">
         <v>3134</v>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="n">
-        <v>63597</v>
+        <v>63595</v>
       </c>
       <c r="D319" t="n">
         <v>2006</v>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="n">
-        <v>63568</v>
+        <v>63567</v>
       </c>
       <c r="D320" t="n">
         <v>538</v>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="n">
-        <v>63493</v>
+        <v>63494</v>
       </c>
       <c r="D321" t="n">
         <v>989</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="n">
-        <v>63365</v>
+        <v>63367</v>
       </c>
       <c r="D322" t="n">
         <v>1713</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
-        <v>63014</v>
+        <v>63013</v>
       </c>
       <c r="D323" t="n">
         <v>4485</v>
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>62998</v>
+        <v>62996</v>
       </c>
       <c r="D324" t="n">
         <v>2628</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="n">
-        <v>62863</v>
+        <v>62862</v>
       </c>
       <c r="D325" t="n">
         <v>1178</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
-        <v>62850</v>
+        <v>62849</v>
       </c>
       <c r="D327" t="n">
         <v>1135</v>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
-        <v>62427</v>
+        <v>62421</v>
       </c>
       <c r="D328" t="n">
         <v>504</v>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="n">
-        <v>62332</v>
+        <v>62329</v>
       </c>
       <c r="D329" t="n">
         <v>1607</v>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="n">
-        <v>62152</v>
+        <v>62160</v>
       </c>
       <c r="D330" t="n">
         <v>1070</v>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="n">
-        <v>62134</v>
+        <v>62143</v>
       </c>
       <c r="D331" t="n">
         <v>971</v>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="n">
-        <v>62065</v>
+        <v>62073</v>
       </c>
       <c r="D332" t="n">
         <v>608</v>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="n">
-        <v>62018</v>
+        <v>62017</v>
       </c>
       <c r="D333" t="n">
         <v>993</v>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="n">
-        <v>61871</v>
+        <v>61867</v>
       </c>
       <c r="D334" t="n">
         <v>494</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
-        <v>61677</v>
+        <v>61674</v>
       </c>
       <c r="D335" t="n">
         <v>1099</v>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="n">
-        <v>61602</v>
+        <v>61604</v>
       </c>
       <c r="D336" t="n">
         <v>1095</v>
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>61534</v>
+        <v>61530</v>
       </c>
       <c r="D337" t="n">
         <v>873</v>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
-        <v>61443</v>
+        <v>61449</v>
       </c>
       <c r="D338" t="n">
         <v>1635</v>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="n">
-        <v>61321</v>
+        <v>61315</v>
       </c>
       <c r="D339" t="n">
         <v>1897</v>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="n">
-        <v>61169</v>
+        <v>61172</v>
       </c>
       <c r="D340" t="n">
         <v>3102</v>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="n">
-        <v>60724</v>
+        <v>60728</v>
       </c>
       <c r="D341" t="n">
         <v>1289</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="n">
-        <v>60621</v>
+        <v>60627</v>
       </c>
       <c r="D342" t="n">
         <v>1356</v>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="n">
-        <v>60410</v>
+        <v>60415</v>
       </c>
       <c r="D343" t="n">
         <v>2670</v>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="n">
-        <v>60149</v>
+        <v>60147</v>
       </c>
       <c r="D344" t="n">
         <v>930</v>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="n">
-        <v>59745</v>
+        <v>59739</v>
       </c>
       <c r="D345" t="n">
         <v>617</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="n">
-        <v>59704</v>
+        <v>59701</v>
       </c>
       <c r="D347" t="n">
         <v>1070</v>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="n">
-        <v>59601</v>
+        <v>59603</v>
       </c>
       <c r="D348" t="n">
         <v>1478</v>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="n">
-        <v>59309</v>
+        <v>59306</v>
       </c>
       <c r="D349" t="n">
         <v>1894</v>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="B350" t="inlineStr"/>
       <c r="C350" t="n">
-        <v>59139</v>
+        <v>59133</v>
       </c>
       <c r="D350" t="n">
         <v>1375</v>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="n">
-        <v>58931</v>
+        <v>58925</v>
       </c>
       <c r="D351" t="n">
         <v>883</v>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="n">
-        <v>58890</v>
+        <v>58888</v>
       </c>
       <c r="D352" t="n">
         <v>1077</v>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="n">
-        <v>58883</v>
+        <v>58885</v>
       </c>
       <c r="D353" t="n">
         <v>948</v>
@@ -9129,7 +9129,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>58636</v>
+        <v>58642</v>
       </c>
       <c r="D354" t="n">
         <v>5680</v>
@@ -9173,7 +9173,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>58610</v>
+        <v>58614</v>
       </c>
       <c r="D355" t="n">
         <v>1345</v>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="n">
-        <v>58488</v>
+        <v>58495</v>
       </c>
       <c r="D357" t="n">
         <v>2114</v>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="B358" t="inlineStr"/>
       <c r="C358" t="n">
-        <v>58252</v>
+        <v>58251</v>
       </c>
       <c r="D358" t="n">
         <v>1538</v>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="B359" t="inlineStr"/>
       <c r="C359" t="n">
-        <v>58229</v>
+        <v>58225</v>
       </c>
       <c r="D359" t="n">
         <v>1215</v>
@@ -9318,7 +9318,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>58215</v>
+        <v>58209</v>
       </c>
       <c r="D360" t="n">
         <v>7683</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="n">
-        <v>58086</v>
+        <v>58095</v>
       </c>
       <c r="D361" t="n">
         <v>4037</v>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="n">
-        <v>57879</v>
+        <v>57877</v>
       </c>
       <c r="D362" t="n">
         <v>657</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="n">
-        <v>57863</v>
+        <v>57859</v>
       </c>
       <c r="D363" t="n">
         <v>1430</v>
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>57783</v>
+        <v>57788</v>
       </c>
       <c r="D364" t="n">
         <v>4841</v>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="n">
-        <v>57771</v>
+        <v>57768</v>
       </c>
       <c r="D365" t="n">
         <v>1448</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="n">
-        <v>57765</v>
+        <v>57751</v>
       </c>
       <c r="D366" t="n">
         <v>1198</v>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="n">
-        <v>57691</v>
+        <v>57692</v>
       </c>
       <c r="D367" t="n">
         <v>654</v>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="n">
-        <v>57689</v>
+        <v>57679</v>
       </c>
       <c r="D368" t="n">
         <v>607</v>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="n">
-        <v>57682</v>
+        <v>57669</v>
       </c>
       <c r="D369" t="n">
         <v>848</v>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="n">
-        <v>57669</v>
+        <v>57660</v>
       </c>
       <c r="D370" t="n">
         <v>1087</v>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="n">
-        <v>57574</v>
+        <v>57576</v>
       </c>
       <c r="D371" t="n">
         <v>456</v>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="n">
-        <v>57486</v>
+        <v>57494</v>
       </c>
       <c r="D372" t="n">
         <v>773</v>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B373" t="inlineStr"/>
       <c r="C373" t="n">
-        <v>57417</v>
+        <v>57416</v>
       </c>
       <c r="D373" t="n">
         <v>654</v>
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="n">
-        <v>57241</v>
+        <v>57247</v>
       </c>
       <c r="D374" t="n">
         <v>914</v>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="B376" t="inlineStr"/>
       <c r="C376" t="n">
-        <v>57047</v>
+        <v>57048</v>
       </c>
       <c r="D376" t="n">
         <v>1783</v>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="n">
-        <v>57013</v>
+        <v>57024</v>
       </c>
       <c r="D377" t="n">
         <v>1231</v>
@@ -9778,7 +9778,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>56964</v>
+        <v>56969</v>
       </c>
       <c r="D378" t="n">
         <v>2047</v>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="n">
-        <v>56877</v>
+        <v>56880</v>
       </c>
       <c r="D379" t="n">
         <v>3088</v>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="n">
-        <v>56874</v>
+        <v>56879</v>
       </c>
       <c r="D380" t="n">
         <v>1349</v>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="n">
-        <v>56800</v>
+        <v>56796</v>
       </c>
       <c r="D381" t="n">
         <v>1095</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>56779</v>
+        <v>56780</v>
       </c>
       <c r="D382" t="n">
         <v>3317</v>
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>56745</v>
+        <v>56754</v>
       </c>
       <c r="D383" t="n">
         <v>612</v>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="n">
-        <v>56594</v>
+        <v>56600</v>
       </c>
       <c r="D384" t="n">
         <v>1050</v>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="n">
-        <v>56576</v>
+        <v>56578</v>
       </c>
       <c r="D385" t="n">
         <v>1205</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="B386" t="inlineStr"/>
       <c r="C386" t="n">
-        <v>56540</v>
+        <v>56538</v>
       </c>
       <c r="D386" t="n">
         <v>3052</v>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="n">
-        <v>56506</v>
+        <v>56508</v>
       </c>
       <c r="D387" t="n">
         <v>1325</v>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="n">
-        <v>56464</v>
+        <v>56458</v>
       </c>
       <c r="D388" t="n">
         <v>988</v>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="n">
-        <v>56385</v>
+        <v>56392</v>
       </c>
       <c r="D389" t="n">
         <v>3056</v>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="n">
-        <v>56327</v>
+        <v>56322</v>
       </c>
       <c r="D390" t="n">
         <v>1448</v>
@@ -10116,7 +10116,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>55795</v>
+        <v>55791</v>
       </c>
       <c r="D391" t="n">
         <v>16270</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>55795</v>
+        <v>55787</v>
       </c>
       <c r="D392" t="n">
         <v>6264</v>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="n">
-        <v>55641</v>
+        <v>55640</v>
       </c>
       <c r="D393" t="n">
         <v>1308</v>
@@ -10224,7 +10224,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>55594</v>
+        <v>55587</v>
       </c>
       <c r="D394" t="n">
         <v>5459</v>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="n">
-        <v>55585</v>
+        <v>55590</v>
       </c>
       <c r="D395" t="n">
         <v>798</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="n">
-        <v>55513</v>
+        <v>55519</v>
       </c>
       <c r="D396" t="n">
         <v>6708</v>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="B397" t="inlineStr"/>
       <c r="C397" t="n">
-        <v>55340</v>
+        <v>55346</v>
       </c>
       <c r="D397" t="n">
         <v>5663</v>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="n">
-        <v>55300</v>
+        <v>55292</v>
       </c>
       <c r="D398" t="n">
         <v>1963</v>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="n">
-        <v>55009</v>
+        <v>55002</v>
       </c>
       <c r="D399" t="n">
         <v>966</v>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="B400" t="inlineStr"/>
       <c r="C400" t="n">
-        <v>54962</v>
+        <v>54961</v>
       </c>
       <c r="D400" t="n">
         <v>2112</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="n">
-        <v>54913</v>
+        <v>54909</v>
       </c>
       <c r="D401" t="n">
         <v>1704</v>
@@ -10424,7 +10424,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>54896</v>
+        <v>54891</v>
       </c>
       <c r="D402" t="n">
         <v>1379</v>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="n">
-        <v>54760</v>
+        <v>54762</v>
       </c>
       <c r="D403" t="n">
         <v>1165</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="n">
-        <v>54740</v>
+        <v>54737</v>
       </c>
       <c r="D404" t="n">
         <v>1840</v>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="n">
-        <v>54650</v>
+        <v>54654</v>
       </c>
       <c r="D405" t="n">
         <v>1028</v>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="n">
-        <v>54636</v>
+        <v>54638</v>
       </c>
       <c r="D406" t="n">
         <v>1487</v>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="B407" t="inlineStr"/>
       <c r="C407" t="n">
-        <v>54622</v>
+        <v>54623</v>
       </c>
       <c r="D407" t="n">
         <v>1490</v>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="n">
-        <v>54626</v>
+        <v>54624</v>
       </c>
       <c r="D408" t="n">
         <v>772</v>
@@ -10589,7 +10589,7 @@
       </c>
       <c r="B409" t="inlineStr"/>
       <c r="C409" t="n">
-        <v>54536</v>
+        <v>54528</v>
       </c>
       <c r="D409" t="n">
         <v>3751</v>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="B410" t="inlineStr"/>
       <c r="C410" t="n">
-        <v>54526</v>
+        <v>54533</v>
       </c>
       <c r="D410" t="n">
         <v>1294</v>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="B411" t="inlineStr"/>
       <c r="C411" t="n">
-        <v>54468</v>
+        <v>54469</v>
       </c>
       <c r="D411" t="n">
         <v>1754</v>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B412" t="inlineStr"/>
       <c r="C412" t="n">
-        <v>54450</v>
+        <v>54454</v>
       </c>
       <c r="D412" t="n">
         <v>1303</v>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="n">
-        <v>54418</v>
+        <v>54427</v>
       </c>
       <c r="D413" t="n">
         <v>1247</v>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="n">
-        <v>54384</v>
+        <v>54380</v>
       </c>
       <c r="D414" t="n">
         <v>1170</v>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B415" t="inlineStr"/>
       <c r="C415" t="n">
-        <v>54215</v>
+        <v>54224</v>
       </c>
       <c r="D415" t="n">
         <v>1469</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="n">
-        <v>54205</v>
+        <v>54206</v>
       </c>
       <c r="D416" t="n">
         <v>897</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="n">
-        <v>54174</v>
+        <v>54185</v>
       </c>
       <c r="D417" t="n">
         <v>992</v>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="B418" t="inlineStr"/>
       <c r="C418" t="n">
-        <v>54147</v>
+        <v>54148</v>
       </c>
       <c r="D418" t="n">
         <v>836</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="n">
-        <v>54091</v>
+        <v>54098</v>
       </c>
       <c r="D419" t="n">
         <v>1309</v>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="n">
-        <v>54006</v>
+        <v>54000</v>
       </c>
       <c r="D420" t="n">
         <v>1010</v>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="n">
-        <v>53940</v>
+        <v>53936</v>
       </c>
       <c r="D421" t="n">
         <v>802</v>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B422" t="inlineStr"/>
       <c r="C422" t="n">
-        <v>53888</v>
+        <v>53885</v>
       </c>
       <c r="D422" t="n">
         <v>2882</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="n">
-        <v>53851</v>
+        <v>53846</v>
       </c>
       <c r="D423" t="n">
         <v>375</v>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="n">
-        <v>53789</v>
+        <v>53780</v>
       </c>
       <c r="D424" t="n">
         <v>3237</v>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B425" t="inlineStr"/>
       <c r="C425" t="n">
-        <v>53743</v>
+        <v>53746</v>
       </c>
       <c r="D425" t="n">
         <v>651</v>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B426" t="inlineStr"/>
       <c r="C426" t="n">
-        <v>53656</v>
+        <v>53652</v>
       </c>
       <c r="D426" t="n">
         <v>1055</v>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B427" t="inlineStr"/>
       <c r="C427" t="n">
-        <v>53627</v>
+        <v>53634</v>
       </c>
       <c r="D427" t="n">
         <v>2207</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B428" t="inlineStr"/>
       <c r="C428" t="n">
-        <v>53562</v>
+        <v>53568</v>
       </c>
       <c r="D428" t="n">
         <v>5563</v>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="B430" t="inlineStr"/>
       <c r="C430" t="n">
-        <v>53449</v>
+        <v>53450</v>
       </c>
       <c r="D430" t="n">
         <v>1062</v>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="B431" t="inlineStr"/>
       <c r="C431" t="n">
-        <v>53421</v>
+        <v>53420</v>
       </c>
       <c r="D431" t="n">
         <v>2218</v>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="B433" t="inlineStr"/>
       <c r="C433" t="n">
-        <v>53383</v>
+        <v>53378</v>
       </c>
       <c r="D433" t="n">
         <v>1635</v>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="n">
-        <v>53146</v>
+        <v>53147</v>
       </c>
       <c r="D435" t="n">
         <v>470</v>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>53075</v>
+        <v>53082</v>
       </c>
       <c r="D436" t="n">
         <v>3160</v>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="B437" t="inlineStr"/>
       <c r="C437" t="n">
-        <v>53037</v>
+        <v>53040</v>
       </c>
       <c r="D437" t="n">
         <v>1140</v>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="n">
-        <v>53000</v>
+        <v>53008</v>
       </c>
       <c r="D438" t="n">
         <v>1003</v>
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="n">
-        <v>52964</v>
+        <v>52961</v>
       </c>
       <c r="D439" t="n">
         <v>1063</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="B440" t="inlineStr"/>
       <c r="C440" t="n">
-        <v>52937</v>
+        <v>52935</v>
       </c>
       <c r="D440" t="n">
         <v>3544</v>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="n">
-        <v>52869</v>
+        <v>52858</v>
       </c>
       <c r="D441" t="n">
         <v>1828</v>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>52821</v>
+        <v>52818</v>
       </c>
       <c r="D442" t="n">
         <v>16540</v>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B443" t="inlineStr"/>
       <c r="C443" t="n">
-        <v>52575</v>
+        <v>52569</v>
       </c>
       <c r="D443" t="n">
         <v>778</v>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="n">
-        <v>52391</v>
+        <v>52384</v>
       </c>
       <c r="D444" t="n">
         <v>1010</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="B445" t="inlineStr"/>
       <c r="C445" t="n">
-        <v>52252</v>
+        <v>52251</v>
       </c>
       <c r="D445" t="n">
         <v>1087</v>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B446" t="inlineStr"/>
       <c r="C446" t="n">
-        <v>52212</v>
+        <v>52214</v>
       </c>
       <c r="D446" t="n">
         <v>3158</v>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="n">
-        <v>52190</v>
+        <v>52184</v>
       </c>
       <c r="D447" t="n">
         <v>2341</v>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="B448" t="inlineStr"/>
       <c r="C448" t="n">
-        <v>52118</v>
+        <v>52122</v>
       </c>
       <c r="D448" t="n">
         <v>583</v>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="n">
-        <v>52038</v>
+        <v>52036</v>
       </c>
       <c r="D449" t="n">
         <v>1809</v>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="n">
-        <v>51943</v>
+        <v>51944</v>
       </c>
       <c r="D450" t="n">
         <v>1082</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="B451" t="inlineStr"/>
       <c r="C451" t="n">
-        <v>51857</v>
+        <v>51858</v>
       </c>
       <c r="D451" t="n">
         <v>1261</v>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B452" t="inlineStr"/>
       <c r="C452" t="n">
-        <v>51832</v>
+        <v>51834</v>
       </c>
       <c r="D452" t="n">
         <v>3020</v>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="n">
-        <v>51820</v>
+        <v>51822</v>
       </c>
       <c r="D453" t="n">
         <v>3805</v>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="B454" t="inlineStr"/>
       <c r="C454" t="n">
-        <v>51770</v>
+        <v>51772</v>
       </c>
       <c r="D454" t="n">
         <v>1325</v>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="B455" t="inlineStr"/>
       <c r="C455" t="n">
-        <v>51711</v>
+        <v>51712</v>
       </c>
       <c r="D455" t="n">
         <v>620</v>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="n">
-        <v>51694</v>
+        <v>51689</v>
       </c>
       <c r="D456" t="n">
         <v>1234</v>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="B457" t="inlineStr"/>
       <c r="C457" t="n">
-        <v>51646</v>
+        <v>51640</v>
       </c>
       <c r="D457" t="n">
         <v>1104</v>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="B458" t="inlineStr"/>
       <c r="C458" t="n">
-        <v>51557</v>
+        <v>51552</v>
       </c>
       <c r="D458" t="n">
         <v>576</v>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="n">
-        <v>51555</v>
+        <v>51549</v>
       </c>
       <c r="D459" t="n">
         <v>1401</v>
@@ -11787,7 +11787,7 @@
       </c>
       <c r="B460" t="inlineStr"/>
       <c r="C460" t="n">
-        <v>51546</v>
+        <v>51552</v>
       </c>
       <c r="D460" t="n">
         <v>1408</v>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="n">
-        <v>51321</v>
+        <v>51322</v>
       </c>
       <c r="D461" t="n">
         <v>545</v>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="n">
-        <v>51290</v>
+        <v>51279</v>
       </c>
       <c r="D462" t="n">
         <v>403</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="n">
-        <v>51255</v>
+        <v>51261</v>
       </c>
       <c r="D463" t="n">
         <v>1580</v>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="n">
-        <v>51235</v>
+        <v>51238</v>
       </c>
       <c r="D464" t="n">
         <v>1811</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="n">
-        <v>51158</v>
+        <v>51161</v>
       </c>
       <c r="D465" t="n">
         <v>1878</v>
@@ -11953,7 +11953,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>51116</v>
+        <v>51109</v>
       </c>
       <c r="D466" t="n">
         <v>15023</v>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="n">
-        <v>51071</v>
+        <v>51074</v>
       </c>
       <c r="D468" t="n">
         <v>1208</v>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="n">
-        <v>51010</v>
+        <v>51007</v>
       </c>
       <c r="D469" t="n">
         <v>1114</v>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="n">
-        <v>50960</v>
+        <v>50956</v>
       </c>
       <c r="D470" t="n">
         <v>2377</v>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="n">
-        <v>50956</v>
+        <v>50957</v>
       </c>
       <c r="D471" t="n">
         <v>2156</v>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="B472" t="inlineStr"/>
       <c r="C472" t="n">
-        <v>50930</v>
+        <v>50937</v>
       </c>
       <c r="D472" t="n">
         <v>2144</v>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>50893</v>
+        <v>50887</v>
       </c>
       <c r="D473" t="n">
         <v>1800</v>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="n">
-        <v>50798</v>
+        <v>50803</v>
       </c>
       <c r="D474" t="n">
         <v>327</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="n">
-        <v>50650</v>
+        <v>50647</v>
       </c>
       <c r="D476" t="n">
         <v>3384</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="n">
-        <v>50631</v>
+        <v>50625</v>
       </c>
       <c r="D477" t="n">
         <v>914</v>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="n">
-        <v>50564</v>
+        <v>50557</v>
       </c>
       <c r="D478" t="n">
         <v>1562</v>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B479" t="inlineStr"/>
       <c r="C479" t="n">
-        <v>50557</v>
+        <v>50562</v>
       </c>
       <c r="D479" t="n">
         <v>2973</v>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="n">
-        <v>50528</v>
+        <v>50533</v>
       </c>
       <c r="D480" t="n">
         <v>2479</v>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="n">
-        <v>50524</v>
+        <v>50520</v>
       </c>
       <c r="D481" t="n">
         <v>2759</v>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B482" t="inlineStr"/>
       <c r="C482" t="n">
-        <v>50512</v>
+        <v>50509</v>
       </c>
       <c r="D482" t="n">
         <v>836</v>
@@ -12420,7 +12420,7 @@
       </c>
       <c r="B485" t="inlineStr"/>
       <c r="C485" t="n">
-        <v>50388</v>
+        <v>50391</v>
       </c>
       <c r="D485" t="n">
         <v>3425</v>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="B487" t="inlineStr"/>
       <c r="C487" t="n">
-        <v>50281</v>
+        <v>50283</v>
       </c>
       <c r="D487" t="n">
         <v>450</v>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="B488" t="inlineStr"/>
       <c r="C488" t="n">
-        <v>50270</v>
+        <v>50273</v>
       </c>
       <c r="D488" t="n">
         <v>836</v>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>50003</v>
+        <v>50007</v>
       </c>
       <c r="D489" t="n">
         <v>2831</v>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="B490" t="inlineStr"/>
       <c r="C490" t="n">
-        <v>49997</v>
+        <v>49995</v>
       </c>
       <c r="D490" t="n">
         <v>832</v>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="n">
-        <v>49871</v>
+        <v>49876</v>
       </c>
       <c r="D491" t="n">
         <v>774</v>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="n">
-        <v>49834</v>
+        <v>49838</v>
       </c>
       <c r="D492" t="n">
         <v>1082</v>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="B493" t="inlineStr"/>
       <c r="C493" t="n">
-        <v>49805</v>
+        <v>49799</v>
       </c>
       <c r="D493" t="n">
         <v>989</v>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="B494" t="inlineStr"/>
       <c r="C494" t="n">
-        <v>49778</v>
+        <v>49781</v>
       </c>
       <c r="D494" t="n">
         <v>987</v>
@@ -12668,7 +12668,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>49714</v>
+        <v>49710</v>
       </c>
       <c r="D495" t="n">
         <v>8890</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="n">
-        <v>49556</v>
+        <v>49553</v>
       </c>
       <c r="D496" t="n">
         <v>1840</v>
@@ -12760,7 +12760,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>49442</v>
+        <v>49445</v>
       </c>
       <c r="D497" t="n">
         <v>3424</v>
@@ -12787,7 +12787,7 @@
       </c>
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="n">
-        <v>49350</v>
+        <v>49349</v>
       </c>
       <c r="D498" t="n">
         <v>1534</v>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="n">
-        <v>49336</v>
+        <v>49340</v>
       </c>
       <c r="D499" t="n">
         <v>440</v>
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>49028</v>
+        <v>49019</v>
       </c>
       <c r="D500" t="n">
         <v>2474</v>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="n">
-        <v>49026</v>
+        <v>49017</v>
       </c>
       <c r="D501" t="n">
         <v>794</v>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="B502" t="inlineStr"/>
       <c r="C502" t="n">
-        <v>48973</v>
+        <v>48985</v>
       </c>
       <c r="D502" t="n">
         <v>1497</v>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="B503" t="inlineStr"/>
       <c r="C503" t="n">
-        <v>48888</v>
+        <v>48891</v>
       </c>
       <c r="D503" t="n">
         <v>2393</v>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B504" t="inlineStr"/>
       <c r="C504" t="n">
-        <v>48775</v>
+        <v>48774</v>
       </c>
       <c r="D504" t="n">
         <v>1246</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="B505" t="inlineStr"/>
       <c r="C505" t="n">
-        <v>48752</v>
+        <v>48760</v>
       </c>
       <c r="D505" t="n">
         <v>1027</v>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B506" t="inlineStr"/>
       <c r="C506" t="n">
-        <v>48749</v>
+        <v>48746</v>
       </c>
       <c r="D506" t="n">
         <v>1597</v>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="n">
-        <v>48658</v>
+        <v>48652</v>
       </c>
       <c r="D507" t="n">
         <v>1057</v>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="B508" t="inlineStr"/>
       <c r="C508" t="n">
-        <v>48533</v>
+        <v>48523</v>
       </c>
       <c r="D508" t="n">
         <v>2012</v>
@@ -13052,7 +13052,7 @@
       </c>
       <c r="B509" t="inlineStr"/>
       <c r="C509" t="n">
-        <v>48441</v>
+        <v>48442</v>
       </c>
       <c r="D509" t="n">
         <v>779</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="n">
-        <v>48434</v>
+        <v>48421</v>
       </c>
       <c r="D510" t="n">
         <v>1234</v>
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>48314</v>
+        <v>48315</v>
       </c>
       <c r="D511" t="n">
         <v>87809</v>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="B512" t="inlineStr"/>
       <c r="C512" t="n">
-        <v>48306</v>
+        <v>48312</v>
       </c>
       <c r="D512" t="n">
         <v>948</v>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="B513" t="inlineStr"/>
       <c r="C513" t="n">
-        <v>48303</v>
+        <v>48302</v>
       </c>
       <c r="D513" t="n">
         <v>920</v>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B514" t="inlineStr"/>
       <c r="C514" t="n">
-        <v>48091</v>
+        <v>48087</v>
       </c>
       <c r="D514" t="n">
         <v>1164</v>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="B515" t="inlineStr"/>
       <c r="C515" t="n">
-        <v>48051</v>
+        <v>48049</v>
       </c>
       <c r="D515" t="n">
         <v>1665</v>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="n">
-        <v>48015</v>
+        <v>48018</v>
       </c>
       <c r="D516" t="n">
         <v>341</v>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B517" t="inlineStr"/>
       <c r="C517" t="n">
-        <v>48006</v>
+        <v>48016</v>
       </c>
       <c r="D517" t="n">
         <v>1025</v>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="B518" t="inlineStr"/>
       <c r="C518" t="n">
-        <v>47943</v>
+        <v>47949</v>
       </c>
       <c r="D518" t="n">
         <v>661</v>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="n">
-        <v>47881</v>
+        <v>47884</v>
       </c>
       <c r="D519" t="n">
         <v>813</v>
@@ -13315,7 +13315,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>47751</v>
+        <v>47759</v>
       </c>
       <c r="D520" t="n">
         <v>65933</v>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="B521" t="inlineStr"/>
       <c r="C521" t="n">
-        <v>47680</v>
+        <v>47681</v>
       </c>
       <c r="D521" t="n">
         <v>3813</v>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="n">
-        <v>47669</v>
+        <v>47666</v>
       </c>
       <c r="D522" t="n">
         <v>1240</v>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="n">
-        <v>47656</v>
+        <v>47650</v>
       </c>
       <c r="D523" t="n">
         <v>1000</v>
@@ -13418,7 +13418,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>47648</v>
+        <v>47644</v>
       </c>
       <c r="D524" t="n">
         <v>1838</v>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="n">
-        <v>47470</v>
+        <v>47468</v>
       </c>
       <c r="D525" t="n">
         <v>688</v>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>47452</v>
+        <v>47456</v>
       </c>
       <c r="D526" t="n">
         <v>4201</v>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="B527" t="inlineStr"/>
       <c r="C527" t="n">
-        <v>47453</v>
+        <v>47451</v>
       </c>
       <c r="D527" t="n">
         <v>1067</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="n">
-        <v>47303</v>
+        <v>47298</v>
       </c>
       <c r="D528" t="n">
         <v>3411</v>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="B529" t="inlineStr"/>
       <c r="C529" t="n">
-        <v>47223</v>
+        <v>47220</v>
       </c>
       <c r="D529" t="n">
         <v>1769</v>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="B530" t="inlineStr"/>
       <c r="C530" t="n">
-        <v>47212</v>
+        <v>47213</v>
       </c>
       <c r="D530" t="n">
         <v>1801</v>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="B531" t="inlineStr"/>
       <c r="C531" t="n">
-        <v>47168</v>
+        <v>47167</v>
       </c>
       <c r="D531" t="n">
         <v>2004</v>
@@ -13624,7 +13624,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>47166</v>
+        <v>47168</v>
       </c>
       <c r="D532" t="n">
         <v>1294</v>
@@ -13656,7 +13656,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>47103</v>
+        <v>47101</v>
       </c>
       <c r="D533" t="n">
         <v>3678</v>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B534" t="inlineStr"/>
       <c r="C534" t="n">
-        <v>46909</v>
+        <v>46915</v>
       </c>
       <c r="D534" t="n">
         <v>1185</v>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B535" t="inlineStr"/>
       <c r="C535" t="n">
-        <v>46860</v>
+        <v>46857</v>
       </c>
       <c r="D535" t="n">
         <v>2674</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="B536" t="inlineStr"/>
       <c r="C536" t="n">
-        <v>46807</v>
+        <v>46809</v>
       </c>
       <c r="D536" t="n">
         <v>930</v>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="B538" t="inlineStr"/>
       <c r="C538" t="n">
-        <v>46722</v>
+        <v>46725</v>
       </c>
       <c r="D538" t="n">
         <v>1446</v>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="B541" t="inlineStr"/>
       <c r="C541" t="n">
-        <v>46573</v>
+        <v>46577</v>
       </c>
       <c r="D541" t="n">
         <v>1614</v>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B542" t="inlineStr"/>
       <c r="C542" t="n">
-        <v>46557</v>
+        <v>46559</v>
       </c>
       <c r="D542" t="n">
         <v>462</v>
@@ -13906,7 +13906,7 @@
       </c>
       <c r="B543" t="inlineStr"/>
       <c r="C543" t="n">
-        <v>46530</v>
+        <v>46531</v>
       </c>
       <c r="D543" t="n">
         <v>3902</v>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="B544" t="inlineStr"/>
       <c r="C544" t="n">
-        <v>46394</v>
+        <v>46387</v>
       </c>
       <c r="D544" t="n">
         <v>1739</v>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="B545" t="inlineStr"/>
       <c r="C545" t="n">
-        <v>46229</v>
+        <v>46234</v>
       </c>
       <c r="D545" t="n">
         <v>1276</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="B547" t="inlineStr"/>
       <c r="C547" t="n">
-        <v>46092</v>
+        <v>46091</v>
       </c>
       <c r="D547" t="n">
         <v>1869</v>
@@ -14089,7 +14089,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>46075</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="n">
         <v>72363</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="B549" t="inlineStr"/>
       <c r="C549" t="n">
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="D549" t="n">
         <v>690</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="B550" t="inlineStr"/>
       <c r="C550" t="n">
-        <v>45785</v>
+        <v>45778</v>
       </c>
       <c r="D550" t="n">
         <v>793</v>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="B551" t="inlineStr"/>
       <c r="C551" t="n">
-        <v>45769</v>
+        <v>45773</v>
       </c>
       <c r="D551" t="n">
         <v>434</v>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="B552" t="inlineStr"/>
       <c r="C552" t="n">
-        <v>45727</v>
+        <v>45734</v>
       </c>
       <c r="D552" t="n">
         <v>2328</v>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="B554" t="inlineStr"/>
       <c r="C554" t="n">
-        <v>45680</v>
+        <v>45676</v>
       </c>
       <c r="D554" t="n">
         <v>439</v>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="B555" t="inlineStr"/>
       <c r="C555" t="n">
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="D555" t="n">
         <v>498</v>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="B556" t="inlineStr"/>
       <c r="C556" t="n">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="D556" t="n">
         <v>1602</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="B557" t="inlineStr"/>
       <c r="C557" t="n">
-        <v>45312</v>
+        <v>45309</v>
       </c>
       <c r="D557" t="n">
         <v>2825</v>
@@ -14339,7 +14339,7 @@
       </c>
       <c r="B558" t="inlineStr"/>
       <c r="C558" t="n">
-        <v>45212</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="n">
         <v>725</v>
@@ -14362,7 +14362,7 @@
       </c>
       <c r="B559" t="inlineStr"/>
       <c r="C559" t="n">
-        <v>45207</v>
+        <v>45201</v>
       </c>
       <c r="D559" t="n">
         <v>3020</v>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="B560" t="inlineStr"/>
       <c r="C560" t="n">
-        <v>45151</v>
+        <v>45145</v>
       </c>
       <c r="D560" t="n">
         <v>1560</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="B561" t="inlineStr"/>
       <c r="C561" t="n">
-        <v>45145</v>
+        <v>45133</v>
       </c>
       <c r="D561" t="n">
         <v>1257</v>
@@ -14450,7 +14450,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>45141</v>
+        <v>45138</v>
       </c>
       <c r="D562" t="n">
         <v>2490</v>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="B563" t="inlineStr"/>
       <c r="C563" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="D563" t="n">
         <v>1496</v>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="D564" t="n">
         <v>2103</v>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B565" t="inlineStr"/>
       <c r="C565" t="n">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="D565" t="n">
         <v>3257</v>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B566" t="inlineStr"/>
       <c r="C566" t="n">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="D566" t="n">
         <v>976</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B567" t="inlineStr"/>
       <c r="C567" t="n">
-        <v>44917</v>
+        <v>44912</v>
       </c>
       <c r="D567" t="n">
         <v>607</v>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="B568" t="inlineStr"/>
       <c r="C568" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="D568" t="n">
         <v>2737</v>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="B569" t="inlineStr"/>
       <c r="C569" t="n">
-        <v>44791</v>
+        <v>44794</v>
       </c>
       <c r="D569" t="n">
         <v>1116</v>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="D570" t="n">
         <v>4099</v>
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>44577</v>
+        <v>44583</v>
       </c>
       <c r="D571" t="n">
         <v>2195</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="B572" t="inlineStr"/>
       <c r="C572" t="n">
-        <v>44556</v>
+        <v>44561</v>
       </c>
       <c r="D572" t="n">
         <v>281</v>
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B573" t="inlineStr"/>
       <c r="C573" t="n">
-        <v>44493</v>
+        <v>44495</v>
       </c>
       <c r="D573" t="n">
         <v>2670</v>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="B574" t="inlineStr"/>
       <c r="C574" t="n">
-        <v>44440</v>
+        <v>44437</v>
       </c>
       <c r="D574" t="n">
         <v>2373</v>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B575" t="inlineStr"/>
       <c r="C575" t="n">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="D575" t="n">
         <v>827</v>
@@ -14791,7 +14791,7 @@
       </c>
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="n">
-        <v>44391</v>
+        <v>44399</v>
       </c>
       <c r="D576" t="n">
         <v>836</v>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="B577" t="inlineStr"/>
       <c r="C577" t="n">
-        <v>44376</v>
+        <v>44368</v>
       </c>
       <c r="D577" t="n">
         <v>914</v>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="B578" t="inlineStr"/>
       <c r="C578" t="n">
-        <v>44340</v>
+        <v>44352</v>
       </c>
       <c r="D578" t="n">
         <v>1558</v>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="B579" t="inlineStr"/>
       <c r="C579" t="n">
-        <v>44331</v>
+        <v>44324</v>
       </c>
       <c r="D579" t="n">
         <v>2631</v>
@@ -14895,7 +14895,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>44333</v>
+        <v>44323</v>
       </c>
       <c r="D580" t="n">
         <v>1365</v>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>44192</v>
+        <v>44199</v>
       </c>
       <c r="D581" t="n">
         <v>1814</v>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="B582" t="inlineStr"/>
       <c r="C582" t="n">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="D582" t="n">
         <v>377</v>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="B583" t="inlineStr"/>
       <c r="C583" t="n">
-        <v>44148</v>
+        <v>44157</v>
       </c>
       <c r="D583" t="n">
         <v>2451</v>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="B584" t="inlineStr"/>
       <c r="C584" t="n">
-        <v>44156</v>
+        <v>44149</v>
       </c>
       <c r="D584" t="n">
         <v>1967</v>
@@ -15028,7 +15028,7 @@
       </c>
       <c r="B585" t="inlineStr"/>
       <c r="C585" t="n">
-        <v>43970</v>
+        <v>43973</v>
       </c>
       <c r="D585" t="n">
         <v>843</v>
@@ -15047,7 +15047,7 @@
       </c>
       <c r="B586" t="inlineStr"/>
       <c r="C586" t="n">
-        <v>43965</v>
+        <v>43968</v>
       </c>
       <c r="D586" t="n">
         <v>604</v>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B587" t="inlineStr"/>
       <c r="C587" t="n">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="D587" t="n">
         <v>866</v>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="B588" t="inlineStr"/>
       <c r="C588" t="n">
-        <v>43893</v>
+        <v>43884</v>
       </c>
       <c r="D588" t="n">
         <v>1287</v>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="B589" t="inlineStr"/>
       <c r="C589" t="n">
-        <v>43841</v>
+        <v>43839</v>
       </c>
       <c r="D589" t="n">
         <v>1248</v>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="B590" t="inlineStr"/>
       <c r="C590" t="n">
-        <v>43831</v>
+        <v>43828</v>
       </c>
       <c r="D590" t="n">
         <v>2298</v>
@@ -15162,7 +15162,7 @@
       </c>
       <c r="B591" t="inlineStr"/>
       <c r="C591" t="n">
-        <v>43778</v>
+        <v>43783</v>
       </c>
       <c r="D591" t="n">
         <v>747</v>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="B592" t="inlineStr"/>
       <c r="C592" t="n">
-        <v>43767</v>
+        <v>43761</v>
       </c>
       <c r="D592" t="n">
         <v>1733</v>
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B593" t="inlineStr"/>
       <c r="C593" t="n">
-        <v>43666</v>
+        <v>43671</v>
       </c>
       <c r="D593" t="n">
         <v>1178</v>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="B594" t="inlineStr"/>
       <c r="C594" t="n">
-        <v>43533</v>
+        <v>43534</v>
       </c>
       <c r="D594" t="n">
         <v>1894</v>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="B595" t="inlineStr"/>
       <c r="C595" t="n">
-        <v>43432</v>
+        <v>43430</v>
       </c>
       <c r="D595" t="n">
         <v>345</v>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="B596" t="inlineStr"/>
       <c r="C596" t="n">
-        <v>43333</v>
+        <v>43335</v>
       </c>
       <c r="D596" t="n">
         <v>1715</v>
@@ -15308,7 +15308,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="D597" t="n">
         <v>1483</v>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="n">
-        <v>43317</v>
+        <v>43319</v>
       </c>
       <c r="D598" t="n">
         <v>706</v>
@@ -15358,7 +15358,7 @@
       </c>
       <c r="B599" t="inlineStr"/>
       <c r="C599" t="n">
-        <v>43262</v>
+        <v>43255</v>
       </c>
       <c r="D599" t="n">
         <v>1299</v>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B601" t="inlineStr"/>
       <c r="C601" t="n">
-        <v>43187</v>
+        <v>43190</v>
       </c>
       <c r="D601" t="n">
         <v>1037</v>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="B602" t="inlineStr"/>
       <c r="C602" t="n">
-        <v>43091</v>
+        <v>43097</v>
       </c>
       <c r="D602" t="n">
         <v>1002</v>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="B603" t="inlineStr"/>
       <c r="C603" t="n">
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="D603" t="n">
         <v>3290</v>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="B604" t="inlineStr"/>
       <c r="C604" t="n">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="D604" t="n">
         <v>351</v>
@@ -15507,7 +15507,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>42993</v>
+        <v>42991</v>
       </c>
       <c r="D605" t="n">
         <v>1352</v>
@@ -15534,7 +15534,7 @@
       </c>
       <c r="B606" t="inlineStr"/>
       <c r="C606" t="n">
-        <v>42967</v>
+        <v>42969</v>
       </c>
       <c r="D606" t="n">
         <v>3015</v>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="B607" t="inlineStr"/>
       <c r="C607" t="n">
-        <v>42903</v>
+        <v>42906</v>
       </c>
       <c r="D607" t="n">
         <v>3131</v>
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B608" t="inlineStr"/>
       <c r="C608" t="n">
-        <v>42871</v>
+        <v>42879</v>
       </c>
       <c r="D608" t="n">
         <v>1551</v>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B609" t="inlineStr"/>
       <c r="C609" t="n">
-        <v>42825</v>
+        <v>42836</v>
       </c>
       <c r="D609" t="n">
         <v>1119</v>
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>42826</v>
+        <v>42825</v>
       </c>
       <c r="D610" t="n">
         <v>4415</v>
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>42745</v>
+        <v>42753</v>
       </c>
       <c r="D611" t="n">
         <v>2867</v>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="B612" t="inlineStr"/>
       <c r="C612" t="n">
-        <v>42682</v>
+        <v>42679</v>
       </c>
       <c r="D612" t="n">
         <v>1784</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="B613" t="inlineStr"/>
       <c r="C613" t="n">
-        <v>42661</v>
+        <v>42660</v>
       </c>
       <c r="D613" t="n">
         <v>3582</v>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="B615" t="inlineStr"/>
       <c r="C615" t="n">
-        <v>42602</v>
+        <v>42605</v>
       </c>
       <c r="D615" t="n">
         <v>481</v>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B616" t="inlineStr"/>
       <c r="C616" t="n">
-        <v>42539</v>
+        <v>42544</v>
       </c>
       <c r="D616" t="n">
         <v>838</v>
@@ -15807,7 +15807,7 @@
       </c>
       <c r="B617" t="inlineStr"/>
       <c r="C617" t="n">
-        <v>42535</v>
+        <v>42537</v>
       </c>
       <c r="D617" t="n">
         <v>2115</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="B618" t="inlineStr"/>
       <c r="C618" t="n">
-        <v>42467</v>
+        <v>42479</v>
       </c>
       <c r="D618" t="n">
         <v>858</v>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="B619" t="inlineStr"/>
       <c r="C619" t="n">
-        <v>42391</v>
+        <v>42381</v>
       </c>
       <c r="D619" t="n">
         <v>996</v>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B620" t="inlineStr"/>
       <c r="C620" t="n">
-        <v>42366</v>
+        <v>42370</v>
       </c>
       <c r="D620" t="n">
         <v>803</v>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="B621" t="inlineStr"/>
       <c r="C621" t="n">
-        <v>42324</v>
+        <v>42330</v>
       </c>
       <c r="D621" t="n">
         <v>903</v>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="B622" t="inlineStr"/>
       <c r="C622" t="n">
-        <v>42319</v>
+        <v>42321</v>
       </c>
       <c r="D622" t="n">
         <v>646</v>
@@ -15956,7 +15956,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>42226</v>
+        <v>42221</v>
       </c>
       <c r="D623" t="n">
         <v>2287</v>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="B624" t="inlineStr"/>
       <c r="C624" t="n">
-        <v>42196</v>
+        <v>42202</v>
       </c>
       <c r="D624" t="n">
         <v>1068</v>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="B625" t="inlineStr"/>
       <c r="C625" t="n">
-        <v>42190</v>
+        <v>42194</v>
       </c>
       <c r="D625" t="n">
         <v>620</v>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="B626" t="inlineStr"/>
       <c r="C626" t="n">
-        <v>42129</v>
+        <v>42134</v>
       </c>
       <c r="D626" t="n">
         <v>1460</v>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="B627" t="inlineStr"/>
       <c r="C627" t="n">
-        <v>42036</v>
+        <v>42028</v>
       </c>
       <c r="D627" t="n">
         <v>1810</v>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B628" t="inlineStr"/>
       <c r="C628" t="n">
-        <v>41976</v>
+        <v>41974</v>
       </c>
       <c r="D628" t="n">
         <v>594</v>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="B629" t="inlineStr"/>
       <c r="C629" t="n">
-        <v>41952</v>
+        <v>41949</v>
       </c>
       <c r="D629" t="n">
         <v>1212</v>
@@ -16130,7 +16130,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>41954</v>
+        <v>41953</v>
       </c>
       <c r="D630" t="n">
         <v>1934</v>
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>41839</v>
+        <v>41850</v>
       </c>
       <c r="D631" t="n">
         <v>2473</v>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="B632" t="inlineStr"/>
       <c r="C632" t="n">
-        <v>41833</v>
+        <v>41840</v>
       </c>
       <c r="D632" t="n">
         <v>684</v>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="B633" t="inlineStr"/>
       <c r="C633" t="n">
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="D633" t="n">
         <v>558</v>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="B634" t="inlineStr"/>
       <c r="C634" t="n">
-        <v>41810</v>
+        <v>41808</v>
       </c>
       <c r="D634" t="n">
         <v>1684</v>
@@ -16337,7 +16337,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="D636" t="n">
         <v>3507</v>
@@ -16364,7 +16364,7 @@
       </c>
       <c r="B637" t="inlineStr"/>
       <c r="C637" t="n">
-        <v>41741</v>
+        <v>41744</v>
       </c>
       <c r="D637" t="n">
         <v>3668</v>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="B638" t="inlineStr"/>
       <c r="C638" t="n">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="D638" t="n">
         <v>506</v>
@@ -16424,7 +16424,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="D639" t="n">
         <v>2490</v>
@@ -16474,7 +16474,7 @@
       </c>
       <c r="B641" t="inlineStr"/>
       <c r="C641" t="n">
-        <v>41636</v>
+        <v>41643</v>
       </c>
       <c r="D641" t="n">
         <v>409</v>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="B642" t="inlineStr"/>
       <c r="C642" t="n">
-        <v>41636</v>
+        <v>41625</v>
       </c>
       <c r="D642" t="n">
         <v>571</v>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B643" t="inlineStr"/>
       <c r="C643" t="n">
-        <v>41558</v>
+        <v>41552</v>
       </c>
       <c r="D643" t="n">
         <v>1125</v>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="B644" t="inlineStr"/>
       <c r="C644" t="n">
-        <v>41551</v>
+        <v>41543</v>
       </c>
       <c r="D644" t="n">
         <v>1002</v>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="n">
-        <v>41527</v>
+        <v>41525</v>
       </c>
       <c r="D645" t="n">
         <v>596</v>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="B646" t="inlineStr"/>
       <c r="C646" t="n">
-        <v>41499</v>
+        <v>41504</v>
       </c>
       <c r="D646" t="n">
         <v>805</v>
@@ -16612,7 +16612,7 @@
       </c>
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="n">
-        <v>41457</v>
+        <v>41461</v>
       </c>
       <c r="D647" t="n">
         <v>1466</v>
@@ -16635,7 +16635,7 @@
       </c>
       <c r="B648" t="inlineStr"/>
       <c r="C648" t="n">
-        <v>41455</v>
+        <v>41453</v>
       </c>
       <c r="D648" t="n">
         <v>1556</v>
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>41456</v>
+        <v>41453</v>
       </c>
       <c r="D649" t="n">
         <v>3926</v>
@@ -16690,7 +16690,7 @@
       </c>
       <c r="B650" t="inlineStr"/>
       <c r="C650" t="n">
-        <v>41333</v>
+        <v>41339</v>
       </c>
       <c r="D650" t="n">
         <v>4060</v>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="B651" t="inlineStr"/>
       <c r="C651" t="n">
-        <v>41256</v>
+        <v>41254</v>
       </c>
       <c r="D651" t="n">
         <v>431</v>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B652" t="inlineStr"/>
       <c r="C652" t="n">
-        <v>41176</v>
+        <v>41177</v>
       </c>
       <c r="D652" t="n">
         <v>1601</v>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="B654" t="inlineStr"/>
       <c r="C654" t="n">
-        <v>41085</v>
+        <v>41090</v>
       </c>
       <c r="D654" t="n">
         <v>799</v>
@@ -16805,7 +16805,7 @@
       </c>
       <c r="B655" t="inlineStr"/>
       <c r="C655" t="n">
-        <v>41063</v>
+        <v>41064</v>
       </c>
       <c r="D655" t="n">
         <v>251</v>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="B657" t="inlineStr"/>
       <c r="C657" t="n">
-        <v>40960</v>
+        <v>40965</v>
       </c>
       <c r="D657" t="n">
         <v>2512</v>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="B658" t="inlineStr"/>
       <c r="C658" t="n">
-        <v>40954</v>
+        <v>40960</v>
       </c>
       <c r="D658" t="n">
         <v>2342</v>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="B659" t="inlineStr"/>
       <c r="C659" t="n">
-        <v>40836</v>
+        <v>40847</v>
       </c>
       <c r="D659" t="n">
         <v>544</v>
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B660" t="inlineStr"/>
       <c r="C660" t="n">
-        <v>40843</v>
+        <v>40841</v>
       </c>
       <c r="D660" t="n">
         <v>1922</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B661" t="inlineStr"/>
       <c r="C661" t="n">
-        <v>40818</v>
+        <v>40814</v>
       </c>
       <c r="D661" t="n">
         <v>224</v>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="B662" t="inlineStr"/>
       <c r="C662" t="n">
-        <v>40798</v>
+        <v>40803</v>
       </c>
       <c r="D662" t="n">
         <v>931</v>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="B663" t="inlineStr"/>
       <c r="C663" t="n">
-        <v>40777</v>
+        <v>40780</v>
       </c>
       <c r="D663" t="n">
         <v>1730</v>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="B664" t="inlineStr"/>
       <c r="C664" t="n">
-        <v>40746</v>
+        <v>40736</v>
       </c>
       <c r="D664" t="n">
         <v>865</v>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="B665" t="inlineStr"/>
       <c r="C665" t="n">
-        <v>40717</v>
+        <v>40706</v>
       </c>
       <c r="D665" t="n">
         <v>457</v>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="B666" t="inlineStr"/>
       <c r="C666" t="n">
-        <v>40686</v>
+        <v>40687</v>
       </c>
       <c r="D666" t="n">
         <v>1324</v>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="B667" t="inlineStr"/>
       <c r="C667" t="n">
-        <v>40663</v>
+        <v>40665</v>
       </c>
       <c r="D667" t="n">
         <v>1040</v>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="B668" t="inlineStr"/>
       <c r="C668" t="n">
-        <v>40661</v>
+        <v>40656</v>
       </c>
       <c r="D668" t="n">
         <v>3238</v>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="B669" t="inlineStr"/>
       <c r="C669" t="n">
-        <v>40635</v>
+        <v>40636</v>
       </c>
       <c r="D669" t="n">
         <v>1113</v>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="B670" t="inlineStr"/>
       <c r="C670" t="n">
-        <v>40630</v>
+        <v>40640</v>
       </c>
       <c r="D670" t="n">
         <v>1878</v>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="B671" t="inlineStr"/>
       <c r="C671" t="n">
-        <v>40616</v>
+        <v>40619</v>
       </c>
       <c r="D671" t="n">
         <v>5269</v>
@@ -17234,7 +17234,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>40589</v>
+        <v>40590</v>
       </c>
       <c r="D672" t="n">
         <v>2515</v>
@@ -17261,7 +17261,7 @@
       </c>
       <c r="B673" t="inlineStr"/>
       <c r="C673" t="n">
-        <v>40559</v>
+        <v>40549</v>
       </c>
       <c r="D673" t="n">
         <v>1212</v>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="B674" t="inlineStr"/>
       <c r="C674" t="n">
-        <v>40544</v>
+        <v>40540</v>
       </c>
       <c r="D674" t="n">
         <v>606</v>
@@ -17326,7 +17326,7 @@
       </c>
       <c r="B676" t="inlineStr"/>
       <c r="C676" t="n">
-        <v>40490</v>
+        <v>40489</v>
       </c>
       <c r="D676" t="n">
         <v>1841</v>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="B677" t="inlineStr"/>
       <c r="C677" t="n">
-        <v>40467</v>
+        <v>40459</v>
       </c>
       <c r="D677" t="n">
         <v>762</v>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="n">
-        <v>40461</v>
+        <v>40462</v>
       </c>
       <c r="D678" t="n">
         <v>709</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="B679" t="inlineStr"/>
       <c r="C679" t="n">
-        <v>40392</v>
+        <v>40396</v>
       </c>
       <c r="D679" t="n">
         <v>1142</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="B680" t="inlineStr"/>
       <c r="C680" t="n">
-        <v>40378</v>
+        <v>40385</v>
       </c>
       <c r="D680" t="n">
         <v>1017</v>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="B681" t="inlineStr"/>
       <c r="C681" t="n">
-        <v>40378</v>
+        <v>40371</v>
       </c>
       <c r="D681" t="n">
         <v>730</v>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B682" t="inlineStr"/>
       <c r="C682" t="n">
-        <v>40259</v>
+        <v>40253</v>
       </c>
       <c r="D682" t="n">
         <v>1842</v>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="B683" t="inlineStr"/>
       <c r="C683" t="n">
-        <v>40246</v>
+        <v>40247</v>
       </c>
       <c r="D683" t="n">
         <v>1007</v>
@@ -17522,7 +17522,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>40201</v>
+        <v>40200</v>
       </c>
       <c r="D684" t="n">
         <v>1505</v>
@@ -17549,7 +17549,7 @@
       </c>
       <c r="B685" t="inlineStr"/>
       <c r="C685" t="n">
-        <v>40151</v>
+        <v>40145</v>
       </c>
       <c r="D685" t="n">
         <v>1554</v>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="B686" t="inlineStr"/>
       <c r="C686" t="n">
-        <v>40088</v>
+        <v>40086</v>
       </c>
       <c r="D686" t="n">
         <v>554</v>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="B687" t="inlineStr"/>
       <c r="C687" t="n">
-        <v>40074</v>
+        <v>40072</v>
       </c>
       <c r="D687" t="n">
         <v>2450</v>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="B689" t="inlineStr"/>
       <c r="C689" t="n">
-        <v>39959</v>
+        <v>39963</v>
       </c>
       <c r="D689" t="n">
         <v>1209</v>
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>39930</v>
+        <v>39929</v>
       </c>
       <c r="D690" t="n">
         <v>1887</v>
@@ -17698,7 +17698,7 @@
       </c>
       <c r="B691" t="inlineStr"/>
       <c r="C691" t="n">
-        <v>39919</v>
+        <v>39906</v>
       </c>
       <c r="D691" t="n">
         <v>2538</v>
@@ -17721,7 +17721,7 @@
       </c>
       <c r="B692" t="inlineStr"/>
       <c r="C692" t="n">
-        <v>39805</v>
+        <v>39799</v>
       </c>
       <c r="D692" t="n">
         <v>745</v>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="B693" t="inlineStr"/>
       <c r="C693" t="n">
-        <v>39812</v>
+        <v>39800</v>
       </c>
       <c r="D693" t="n">
         <v>1260</v>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="B694" t="inlineStr"/>
       <c r="C694" t="n">
-        <v>39734</v>
+        <v>39728</v>
       </c>
       <c r="D694" t="n">
         <v>461</v>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B695" t="inlineStr"/>
       <c r="C695" t="n">
-        <v>39694</v>
+        <v>39690</v>
       </c>
       <c r="D695" t="n">
         <v>1304</v>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B697" t="inlineStr"/>
       <c r="C697" t="n">
-        <v>39628</v>
+        <v>39625</v>
       </c>
       <c r="D697" t="n">
         <v>993</v>
@@ -17859,7 +17859,7 @@
       </c>
       <c r="B698" t="inlineStr"/>
       <c r="C698" t="n">
-        <v>39620</v>
+        <v>39610</v>
       </c>
       <c r="D698" t="n">
         <v>888</v>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="B699" t="inlineStr"/>
       <c r="C699" t="n">
-        <v>39584</v>
+        <v>39582</v>
       </c>
       <c r="D699" t="n">
         <v>1268</v>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="B700" t="inlineStr"/>
       <c r="C700" t="n">
-        <v>39583</v>
+        <v>39588</v>
       </c>
       <c r="D700" t="n">
         <v>1001</v>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="B701" t="inlineStr"/>
       <c r="C701" t="n">
-        <v>39576</v>
+        <v>39579</v>
       </c>
       <c r="D701" t="n">
         <v>570</v>
@@ -17951,7 +17951,7 @@
       </c>
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="n">
-        <v>39510</v>
+        <v>39514</v>
       </c>
       <c r="D702" t="n">
         <v>1957</v>
@@ -17974,7 +17974,7 @@
       </c>
       <c r="B703" t="inlineStr"/>
       <c r="C703" t="n">
-        <v>39508</v>
+        <v>39509</v>
       </c>
       <c r="D703" t="n">
         <v>1063</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="B704" t="inlineStr"/>
       <c r="C704" t="n">
-        <v>39484</v>
+        <v>39472</v>
       </c>
       <c r="D704" t="n">
         <v>3997</v>
@@ -18032,7 +18032,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>39446</v>
+        <v>39440</v>
       </c>
       <c r="D705" t="n">
         <v>2470</v>
@@ -18059,7 +18059,7 @@
       </c>
       <c r="B706" t="inlineStr"/>
       <c r="C706" t="n">
-        <v>39406</v>
+        <v>39405</v>
       </c>
       <c r="D706" t="n">
         <v>499</v>
@@ -18078,7 +18078,7 @@
       </c>
       <c r="B707" t="inlineStr"/>
       <c r="C707" t="n">
-        <v>39406</v>
+        <v>39403</v>
       </c>
       <c r="D707" t="n">
         <v>674</v>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="B708" t="inlineStr"/>
       <c r="C708" t="n">
-        <v>39383</v>
+        <v>39380</v>
       </c>
       <c r="D708" t="n">
         <v>6869</v>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B709" t="inlineStr"/>
       <c r="C709" t="n">
-        <v>39369</v>
+        <v>39366</v>
       </c>
       <c r="D709" t="n">
         <v>1286</v>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="B710" t="inlineStr"/>
       <c r="C710" t="n">
-        <v>39318</v>
+        <v>39317</v>
       </c>
       <c r="D710" t="n">
         <v>819</v>
@@ -18170,7 +18170,7 @@
       </c>
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="n">
-        <v>39293</v>
+        <v>39299</v>
       </c>
       <c r="D711" t="n">
         <v>2127</v>
@@ -18193,7 +18193,7 @@
       </c>
       <c r="B712" t="inlineStr"/>
       <c r="C712" t="n">
-        <v>39286</v>
+        <v>39287</v>
       </c>
       <c r="D712" t="n">
         <v>2287</v>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="B713" t="inlineStr"/>
       <c r="C713" t="n">
-        <v>39259</v>
+        <v>39255</v>
       </c>
       <c r="D713" t="n">
         <v>5218</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="n">
-        <v>39242</v>
+        <v>39238</v>
       </c>
       <c r="D714" t="n">
         <v>1547</v>
@@ -18262,7 +18262,7 @@
       </c>
       <c r="B715" t="inlineStr"/>
       <c r="C715" t="n">
-        <v>39235</v>
+        <v>39246</v>
       </c>
       <c r="D715" t="n">
         <v>889</v>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="B716" t="inlineStr"/>
       <c r="C716" t="n">
-        <v>39224</v>
+        <v>39221</v>
       </c>
       <c r="D716" t="n">
         <v>1118</v>
@@ -18308,7 +18308,7 @@
       </c>
       <c r="B717" t="inlineStr"/>
       <c r="C717" t="n">
-        <v>39129</v>
+        <v>39131</v>
       </c>
       <c r="D717" t="n">
         <v>816</v>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="B718" t="inlineStr"/>
       <c r="C718" t="n">
-        <v>39086</v>
+        <v>39096</v>
       </c>
       <c r="D718" t="n">
         <v>997</v>
@@ -18354,7 +18354,7 @@
       </c>
       <c r="B719" t="inlineStr"/>
       <c r="C719" t="n">
-        <v>39090</v>
+        <v>39092</v>
       </c>
       <c r="D719" t="n">
         <v>586</v>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="B721" t="inlineStr"/>
       <c r="C721" t="n">
-        <v>38922</v>
+        <v>38916</v>
       </c>
       <c r="D721" t="n">
         <v>525</v>
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>38916</v>
+        <v>38925</v>
       </c>
       <c r="D722" t="n">
         <v>4428</v>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="B723" t="inlineStr"/>
       <c r="C723" t="n">
-        <v>38863</v>
+        <v>38860</v>
       </c>
       <c r="D723" t="n">
         <v>640</v>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B724" t="inlineStr"/>
       <c r="C724" t="n">
-        <v>38828</v>
+        <v>38835</v>
       </c>
       <c r="D724" t="n">
         <v>384</v>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="B725" t="inlineStr"/>
       <c r="C725" t="n">
-        <v>38786</v>
+        <v>38788</v>
       </c>
       <c r="D725" t="n">
         <v>855</v>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="B726" t="inlineStr"/>
       <c r="C726" t="n">
-        <v>38724</v>
+        <v>38721</v>
       </c>
       <c r="D726" t="n">
         <v>731</v>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="B727" t="inlineStr"/>
       <c r="C727" t="n">
-        <v>38711</v>
+        <v>38712</v>
       </c>
       <c r="D727" t="n">
         <v>2612</v>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="B728" t="inlineStr"/>
       <c r="C728" t="n">
-        <v>38666</v>
+        <v>38656</v>
       </c>
       <c r="D728" t="n">
         <v>1754</v>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B729" t="inlineStr"/>
       <c r="C729" t="n">
-        <v>38623</v>
+        <v>38622</v>
       </c>
       <c r="D729" t="n">
         <v>1063</v>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="B730" t="inlineStr"/>
       <c r="C730" t="n">
-        <v>38554</v>
+        <v>38558</v>
       </c>
       <c r="D730" t="n">
         <v>806</v>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="B731" t="inlineStr"/>
       <c r="C731" t="n">
-        <v>38556</v>
+        <v>38555</v>
       </c>
       <c r="D731" t="n">
         <v>1055</v>
@@ -18675,7 +18675,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>38536</v>
+        <v>38541</v>
       </c>
       <c r="D732" t="n">
         <v>4784</v>
@@ -18702,7 +18702,7 @@
       </c>
       <c r="B733" t="inlineStr"/>
       <c r="C733" t="n">
-        <v>38518</v>
+        <v>38515</v>
       </c>
       <c r="D733" t="n">
         <v>2486</v>
@@ -18748,7 +18748,7 @@
       </c>
       <c r="B735" t="inlineStr"/>
       <c r="C735" t="n">
-        <v>38477</v>
+        <v>38468</v>
       </c>
       <c r="D735" t="n">
         <v>2496</v>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="B736" t="inlineStr"/>
       <c r="C736" t="n">
-        <v>38433</v>
+        <v>38429</v>
       </c>
       <c r="D736" t="n">
         <v>708</v>
@@ -18794,7 +18794,7 @@
       </c>
       <c r="B737" t="inlineStr"/>
       <c r="C737" t="n">
-        <v>38416</v>
+        <v>38423</v>
       </c>
       <c r="D737" t="n">
         <v>1475</v>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B739" t="inlineStr"/>
       <c r="C739" t="n">
-        <v>38325</v>
+        <v>38329</v>
       </c>
       <c r="D739" t="n">
         <v>1853</v>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="B740" t="inlineStr"/>
       <c r="C740" t="n">
-        <v>38283</v>
+        <v>38287</v>
       </c>
       <c r="D740" t="n">
         <v>850</v>
@@ -18886,7 +18886,7 @@
       </c>
       <c r="B741" t="inlineStr"/>
       <c r="C741" t="n">
-        <v>38255</v>
+        <v>38260</v>
       </c>
       <c r="D741" t="n">
         <v>669</v>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="B742" t="inlineStr"/>
       <c r="C742" t="n">
-        <v>38243</v>
+        <v>38244</v>
       </c>
       <c r="D742" t="n">
         <v>1877</v>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="B744" t="inlineStr"/>
       <c r="C744" t="n">
-        <v>38219</v>
+        <v>38220</v>
       </c>
       <c r="D744" t="n">
         <v>365</v>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="B745" t="inlineStr"/>
       <c r="C745" t="n">
-        <v>38224</v>
+        <v>38216</v>
       </c>
       <c r="D745" t="n">
         <v>807</v>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="B746" t="inlineStr"/>
       <c r="C746" t="n">
-        <v>38194</v>
+        <v>38187</v>
       </c>
       <c r="D746" t="n">
         <v>423</v>
@@ -19024,7 +19024,7 @@
       </c>
       <c r="B747" t="inlineStr"/>
       <c r="C747" t="n">
-        <v>38164</v>
+        <v>38163</v>
       </c>
       <c r="D747" t="n">
         <v>752</v>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="B748" t="inlineStr"/>
       <c r="C748" t="n">
-        <v>38162</v>
+        <v>38156</v>
       </c>
       <c r="D748" t="n">
         <v>724</v>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="B749" t="inlineStr"/>
       <c r="C749" t="n">
-        <v>38131</v>
+        <v>38139</v>
       </c>
       <c r="D749" t="n">
         <v>326</v>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B751" t="inlineStr"/>
       <c r="C751" t="n">
-        <v>38077</v>
+        <v>38064</v>
       </c>
       <c r="D751" t="n">
         <v>1087</v>
@@ -19139,7 +19139,7 @@
       </c>
       <c r="B752" t="inlineStr"/>
       <c r="C752" t="n">
-        <v>38071</v>
+        <v>38069</v>
       </c>
       <c r="D752" t="n">
         <v>636</v>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="B753" t="inlineStr"/>
       <c r="C753" t="n">
-        <v>37921</v>
+        <v>37919</v>
       </c>
       <c r="D753" t="n">
         <v>292</v>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="B754" t="inlineStr"/>
       <c r="C754" t="n">
-        <v>37898</v>
+        <v>37895</v>
       </c>
       <c r="D754" t="n">
         <v>3765</v>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B755" t="inlineStr"/>
       <c r="C755" t="n">
-        <v>37874</v>
+        <v>37866</v>
       </c>
       <c r="D755" t="n">
         <v>714</v>
@@ -19227,7 +19227,7 @@
       </c>
       <c r="B756" t="inlineStr"/>
       <c r="C756" t="n">
-        <v>37864</v>
+        <v>37860</v>
       </c>
       <c r="D756" t="n">
         <v>2991</v>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="B757" t="inlineStr"/>
       <c r="C757" t="n">
-        <v>37760</v>
+        <v>37764</v>
       </c>
       <c r="D757" t="n">
         <v>699</v>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>37715</v>
+        <v>37714</v>
       </c>
       <c r="D758" t="n">
         <v>1464</v>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="B759" t="inlineStr"/>
       <c r="C759" t="n">
-        <v>37689</v>
+        <v>37691</v>
       </c>
       <c r="D759" t="n">
         <v>1120</v>
@@ -19327,7 +19327,7 @@
       </c>
       <c r="B760" t="inlineStr"/>
       <c r="C760" t="n">
-        <v>37659</v>
+        <v>37663</v>
       </c>
       <c r="D760" t="n">
         <v>2116</v>
@@ -19350,7 +19350,7 @@
       </c>
       <c r="B761" t="inlineStr"/>
       <c r="C761" t="n">
-        <v>37604</v>
+        <v>37598</v>
       </c>
       <c r="D761" t="n">
         <v>513</v>
@@ -19383,7 +19383,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>37585</v>
+        <v>37582</v>
       </c>
       <c r="D762" t="n">
         <v>1156</v>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="B763" t="inlineStr"/>
       <c r="C763" t="n">
-        <v>37574</v>
+        <v>37572</v>
       </c>
       <c r="D763" t="n">
         <v>1361</v>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="B764" t="inlineStr"/>
       <c r="C764" t="n">
-        <v>37560</v>
+        <v>37545</v>
       </c>
       <c r="D764" t="n">
         <v>474</v>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B765" t="inlineStr"/>
       <c r="C765" t="n">
-        <v>37538</v>
+        <v>37534</v>
       </c>
       <c r="D765" t="n">
         <v>929</v>
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B767" t="inlineStr"/>
       <c r="C767" t="n">
-        <v>37503</v>
+        <v>37498</v>
       </c>
       <c r="D767" t="n">
         <v>2212</v>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="B768" t="inlineStr"/>
       <c r="C768" t="n">
-        <v>37483</v>
+        <v>37484</v>
       </c>
       <c r="D768" t="n">
         <v>1838</v>
@@ -19548,7 +19548,7 @@
       </c>
       <c r="B769" t="inlineStr"/>
       <c r="C769" t="n">
-        <v>37443</v>
+        <v>37437</v>
       </c>
       <c r="D769" t="n">
         <v>2041</v>
@@ -19571,7 +19571,7 @@
       </c>
       <c r="B770" t="inlineStr"/>
       <c r="C770" t="n">
-        <v>37446</v>
+        <v>37433</v>
       </c>
       <c r="D770" t="n">
         <v>888</v>
@@ -19594,7 +19594,7 @@
       </c>
       <c r="B771" t="inlineStr"/>
       <c r="C771" t="n">
-        <v>37440</v>
+        <v>37435</v>
       </c>
       <c r="D771" t="n">
         <v>699</v>
@@ -19617,7 +19617,7 @@
       </c>
       <c r="B772" t="inlineStr"/>
       <c r="C772" t="n">
-        <v>37410</v>
+        <v>37407</v>
       </c>
       <c r="D772" t="n">
         <v>1219</v>
@@ -19640,7 +19640,7 @@
       </c>
       <c r="B773" t="inlineStr"/>
       <c r="C773" t="n">
-        <v>37376</v>
+        <v>37375</v>
       </c>
       <c r="D773" t="n">
         <v>991</v>
@@ -19663,7 +19663,7 @@
       </c>
       <c r="B774" t="inlineStr"/>
       <c r="C774" t="n">
-        <v>37364</v>
+        <v>37363</v>
       </c>
       <c r="D774" t="n">
         <v>1860</v>
@@ -19686,7 +19686,7 @@
       </c>
       <c r="B775" t="inlineStr"/>
       <c r="C775" t="n">
-        <v>37331</v>
+        <v>37336</v>
       </c>
       <c r="D775" t="n">
         <v>1203</v>
@@ -19717,7 +19717,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>37336</v>
+        <v>37322</v>
       </c>
       <c r="D776" t="n">
         <v>31850</v>
@@ -19762,7 +19762,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>37261</v>
+        <v>37265</v>
       </c>
       <c r="D777" t="n">
         <v>1415</v>
@@ -19789,7 +19789,7 @@
       </c>
       <c r="B778" t="inlineStr"/>
       <c r="C778" t="n">
-        <v>37228</v>
+        <v>37225</v>
       </c>
       <c r="D778" t="n">
         <v>2012</v>
@@ -19812,7 +19812,7 @@
       </c>
       <c r="B779" t="inlineStr"/>
       <c r="C779" t="n">
-        <v>37178</v>
+        <v>37184</v>
       </c>
       <c r="D779" t="n">
         <v>1199</v>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>37149</v>
+        <v>37154</v>
       </c>
       <c r="D780" t="n">
         <v>2680</v>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="B781" t="inlineStr"/>
       <c r="C781" t="n">
-        <v>37127</v>
+        <v>37129</v>
       </c>
       <c r="D781" t="n">
         <v>690</v>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="B782" t="inlineStr"/>
       <c r="C782" t="n">
-        <v>37130</v>
+        <v>37124</v>
       </c>
       <c r="D782" t="n">
         <v>392</v>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="n">
-        <v>37067</v>
+        <v>37063</v>
       </c>
       <c r="D783" t="n">
         <v>750</v>
@@ -19942,7 +19942,7 @@
       </c>
       <c r="B784" t="inlineStr"/>
       <c r="C784" t="n">
-        <v>37062</v>
+        <v>37068</v>
       </c>
       <c r="D784" t="n">
         <v>329</v>
@@ -19965,7 +19965,7 @@
       </c>
       <c r="B785" t="inlineStr"/>
       <c r="C785" t="n">
-        <v>37048</v>
+        <v>37055</v>
       </c>
       <c r="D785" t="n">
         <v>433</v>
@@ -19988,7 +19988,7 @@
       </c>
       <c r="B786" t="inlineStr"/>
       <c r="C786" t="n">
-        <v>36988</v>
+        <v>36999</v>
       </c>
       <c r="D786" t="n">
         <v>4455</v>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="B787" t="inlineStr"/>
       <c r="C787" t="n">
-        <v>36976</v>
+        <v>36971</v>
       </c>
       <c r="D787" t="n">
         <v>1003</v>
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B788" t="inlineStr"/>
       <c r="C788" t="n">
-        <v>36931</v>
+        <v>36933</v>
       </c>
       <c r="D788" t="n">
         <v>6321</v>
@@ -20057,7 +20057,7 @@
       </c>
       <c r="B789" t="inlineStr"/>
       <c r="C789" t="n">
-        <v>36837</v>
+        <v>36832</v>
       </c>
       <c r="D789" t="n">
         <v>428</v>
@@ -20093,7 +20093,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>36836</v>
+        <v>36826</v>
       </c>
       <c r="D790" t="n">
         <v>2820</v>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="B791" t="inlineStr"/>
       <c r="C791" t="n">
-        <v>36788</v>
+        <v>36794</v>
       </c>
       <c r="D791" t="n">
         <v>964</v>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="n">
-        <v>36779</v>
+        <v>36775</v>
       </c>
       <c r="D792" t="n">
         <v>2674</v>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="B793" t="inlineStr"/>
       <c r="C793" t="n">
-        <v>36764</v>
+        <v>36756</v>
       </c>
       <c r="D793" t="n">
         <v>1188</v>
@@ -20189,7 +20189,7 @@
       </c>
       <c r="B794" t="inlineStr"/>
       <c r="C794" t="n">
-        <v>36749</v>
+        <v>36755</v>
       </c>
       <c r="D794" t="n">
         <v>3298</v>
@@ -20212,7 +20212,7 @@
       </c>
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="n">
-        <v>36718</v>
+        <v>36716</v>
       </c>
       <c r="D795" t="n">
         <v>1890</v>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="B796" t="inlineStr"/>
       <c r="C796" t="n">
-        <v>36702</v>
+        <v>36704</v>
       </c>
       <c r="D796" t="n">
         <v>2749</v>
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B797" t="inlineStr"/>
       <c r="C797" t="n">
-        <v>36692</v>
+        <v>36700</v>
       </c>
       <c r="D797" t="n">
         <v>869</v>
@@ -20286,7 +20286,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>36701</v>
+        <v>36697</v>
       </c>
       <c r="D798" t="n">
         <v>47114</v>
@@ -20313,10 +20313,10 @@
       </c>
       <c r="B799" t="inlineStr"/>
       <c r="C799" t="n">
-        <v>36625</v>
+        <v>36627</v>
       </c>
       <c r="D799" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E799" t="n">
         <v>1715558500</v>
@@ -20336,7 +20336,7 @@
       </c>
       <c r="B800" t="inlineStr"/>
       <c r="C800" t="n">
-        <v>36628</v>
+        <v>36616</v>
       </c>
       <c r="D800" t="n">
         <v>1144</v>
@@ -20359,7 +20359,7 @@
       </c>
       <c r="B801" t="inlineStr"/>
       <c r="C801" t="n">
-        <v>36614</v>
+        <v>36610</v>
       </c>
       <c r="D801" t="n">
         <v>513</v>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="B802" t="inlineStr"/>
       <c r="C802" t="n">
-        <v>36595</v>
+        <v>36594</v>
       </c>
       <c r="D802" t="n">
         <v>1108</v>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="B803" t="inlineStr"/>
       <c r="C803" t="n">
-        <v>36526</v>
+        <v>36525</v>
       </c>
       <c r="D803" t="n">
         <v>615</v>
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B804" t="inlineStr"/>
       <c r="C804" t="n">
-        <v>36404</v>
+        <v>36412</v>
       </c>
       <c r="D804" t="n">
         <v>1128</v>
@@ -20451,7 +20451,7 @@
       </c>
       <c r="B805" t="inlineStr"/>
       <c r="C805" t="n">
-        <v>36350</v>
+        <v>36361</v>
       </c>
       <c r="D805" t="n">
         <v>171</v>
@@ -20481,7 +20481,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>36312</v>
+        <v>36314</v>
       </c>
       <c r="D806" t="n">
         <v>2895</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="B807" t="inlineStr"/>
       <c r="C807" t="n">
-        <v>36299</v>
+        <v>36296</v>
       </c>
       <c r="D807" t="n">
         <v>580</v>
@@ -20538,7 +20538,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>36293</v>
+        <v>36306</v>
       </c>
       <c r="D808" t="n">
         <v>1197</v>
@@ -20565,7 +20565,7 @@
       </c>
       <c r="B809" t="inlineStr"/>
       <c r="C809" t="n">
-        <v>36265</v>
+        <v>36271</v>
       </c>
       <c r="D809" t="n">
         <v>3983</v>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="B810" t="inlineStr"/>
       <c r="C810" t="n">
-        <v>36256</v>
+        <v>36264</v>
       </c>
       <c r="D810" t="n">
         <v>999</v>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="B811" t="inlineStr"/>
       <c r="C811" t="n">
-        <v>36225</v>
+        <v>36227</v>
       </c>
       <c r="D811" t="n">
         <v>3115</v>
@@ -20634,7 +20634,7 @@
       </c>
       <c r="B812" t="inlineStr"/>
       <c r="C812" t="n">
-        <v>36201</v>
+        <v>36202</v>
       </c>
       <c r="D812" t="n">
         <v>1504</v>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="B813" t="inlineStr"/>
       <c r="C813" t="n">
-        <v>36200</v>
+        <v>36193</v>
       </c>
       <c r="D813" t="n">
         <v>390</v>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B814" t="inlineStr"/>
       <c r="C814" t="n">
-        <v>36136</v>
+        <v>36134</v>
       </c>
       <c r="D814" t="n">
         <v>384</v>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="B816" t="inlineStr"/>
       <c r="C816" t="n">
-        <v>36126</v>
+        <v>36114</v>
       </c>
       <c r="D816" t="n">
         <v>206</v>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B817" t="inlineStr"/>
       <c r="C817" t="n">
-        <v>36043</v>
+        <v>36047</v>
       </c>
       <c r="D817" t="n">
         <v>995</v>
@@ -20845,7 +20845,7 @@
       </c>
       <c r="B818" t="inlineStr"/>
       <c r="C818" t="n">
-        <v>35927</v>
+        <v>35923</v>
       </c>
       <c r="D818" t="n">
         <v>935</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B819" t="inlineStr"/>
       <c r="C819" t="n">
-        <v>35888</v>
+        <v>35903</v>
       </c>
       <c r="D819" t="n">
         <v>1417</v>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="B820" t="inlineStr"/>
       <c r="C820" t="n">
-        <v>35894</v>
+        <v>35896</v>
       </c>
       <c r="D820" t="n">
         <v>50271</v>
@@ -20914,7 +20914,7 @@
       </c>
       <c r="B821" t="inlineStr"/>
       <c r="C821" t="n">
-        <v>35894</v>
+        <v>35900</v>
       </c>
       <c r="D821" t="n">
         <v>786</v>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="B822" t="inlineStr"/>
       <c r="C822" t="n">
-        <v>35823</v>
+        <v>35820</v>
       </c>
       <c r="D822" t="n">
         <v>481</v>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B823" t="inlineStr"/>
       <c r="C823" t="n">
-        <v>35780</v>
+        <v>35779</v>
       </c>
       <c r="D823" t="n">
         <v>1231</v>
@@ -20990,7 +20990,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>35783</v>
+        <v>35781</v>
       </c>
       <c r="D824" t="n">
         <v>2300</v>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="B825" t="inlineStr"/>
       <c r="C825" t="n">
-        <v>35735</v>
+        <v>35740</v>
       </c>
       <c r="D825" t="n">
         <v>537</v>
@@ -21036,7 +21036,7 @@
       </c>
       <c r="B826" t="inlineStr"/>
       <c r="C826" t="n">
-        <v>35715</v>
+        <v>35711</v>
       </c>
       <c r="D826" t="n">
         <v>860</v>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="B827" t="inlineStr"/>
       <c r="C827" t="n">
-        <v>35662</v>
+        <v>35666</v>
       </c>
       <c r="D827" t="n">
         <v>1251</v>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="B828" t="inlineStr"/>
       <c r="C828" t="n">
-        <v>35613</v>
+        <v>35615</v>
       </c>
       <c r="D828" t="n">
         <v>639</v>
@@ -21125,7 +21125,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>35615</v>
+        <v>35618</v>
       </c>
       <c r="D829" t="n">
         <v>1426</v>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B830" t="inlineStr"/>
       <c r="C830" t="n">
-        <v>35533</v>
+        <v>35531</v>
       </c>
       <c r="D830" t="n">
         <v>865</v>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B831" t="inlineStr"/>
       <c r="C831" t="n">
-        <v>35523</v>
+        <v>35519</v>
       </c>
       <c r="D831" t="n">
         <v>259</v>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="B832" t="inlineStr"/>
       <c r="C832" t="n">
-        <v>35484</v>
+        <v>35482</v>
       </c>
       <c r="D832" t="n">
         <v>1102</v>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="B833" t="inlineStr"/>
       <c r="C833" t="n">
-        <v>35456</v>
+        <v>35451</v>
       </c>
       <c r="D833" t="n">
         <v>1334</v>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B834" t="inlineStr"/>
       <c r="C834" t="n">
-        <v>35432</v>
+        <v>35431</v>
       </c>
       <c r="D834" t="n">
         <v>3178</v>
@@ -21267,7 +21267,7 @@
       </c>
       <c r="B835" t="inlineStr"/>
       <c r="C835" t="n">
-        <v>35424</v>
+        <v>35425</v>
       </c>
       <c r="D835" t="n">
         <v>478</v>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="B837" t="inlineStr"/>
       <c r="C837" t="n">
-        <v>35405</v>
+        <v>35401</v>
       </c>
       <c r="D837" t="n">
         <v>2519</v>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="B838" t="inlineStr"/>
       <c r="C838" t="n">
-        <v>35369</v>
+        <v>35367</v>
       </c>
       <c r="D838" t="n">
         <v>1653</v>
@@ -21359,7 +21359,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>35337</v>
+        <v>35349</v>
       </c>
       <c r="D839" t="n">
         <v>60879</v>
@@ -21470,7 +21470,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>35337</v>
+        <v>35335</v>
       </c>
       <c r="D840" t="n">
         <v>3382</v>
@@ -21511,7 +21511,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>35302</v>
+        <v>35312</v>
       </c>
       <c r="D841" t="n">
         <v>3989</v>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="B842" t="inlineStr"/>
       <c r="C842" t="n">
-        <v>35280</v>
+        <v>35283</v>
       </c>
       <c r="D842" t="n">
         <v>1209</v>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="B843" t="inlineStr"/>
       <c r="C843" t="n">
-        <v>35270</v>
+        <v>35275</v>
       </c>
       <c r="D843" t="n">
         <v>546</v>
@@ -21584,7 +21584,7 @@
       </c>
       <c r="B844" t="inlineStr"/>
       <c r="C844" t="n">
-        <v>35201</v>
+        <v>35207</v>
       </c>
       <c r="D844" t="n">
         <v>686</v>
@@ -21607,7 +21607,7 @@
       </c>
       <c r="B845" t="inlineStr"/>
       <c r="C845" t="n">
-        <v>35205</v>
+        <v>35200</v>
       </c>
       <c r="D845" t="n">
         <v>1178</v>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="B846" t="inlineStr"/>
       <c r="C846" t="n">
-        <v>35073</v>
+        <v>35071</v>
       </c>
       <c r="D846" t="n">
         <v>916</v>
@@ -21669,7 +21669,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>35014</v>
+        <v>35013</v>
       </c>
       <c r="D847" t="n">
         <v>2682</v>
@@ -21696,7 +21696,7 @@
       </c>
       <c r="B848" t="inlineStr"/>
       <c r="C848" t="n">
-        <v>34973</v>
+        <v>34981</v>
       </c>
       <c r="D848" t="n">
         <v>575</v>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="B849" t="inlineStr"/>
       <c r="C849" t="n">
-        <v>34973</v>
+        <v>34971</v>
       </c>
       <c r="D849" t="n">
         <v>1299</v>
@@ -21742,7 +21742,7 @@
       </c>
       <c r="B850" t="inlineStr"/>
       <c r="C850" t="n">
-        <v>34956</v>
+        <v>34960</v>
       </c>
       <c r="D850" t="n">
         <v>784</v>
@@ -21765,7 +21765,7 @@
       </c>
       <c r="B851" t="inlineStr"/>
       <c r="C851" t="n">
-        <v>34927</v>
+        <v>34930</v>
       </c>
       <c r="D851" t="n">
         <v>524</v>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="B852" t="inlineStr"/>
       <c r="C852" t="n">
-        <v>34860</v>
+        <v>34855</v>
       </c>
       <c r="D852" t="n">
         <v>960</v>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="B853" t="inlineStr"/>
       <c r="C853" t="n">
-        <v>34848</v>
+        <v>34852</v>
       </c>
       <c r="D853" t="n">
         <v>1221</v>
@@ -21834,7 +21834,7 @@
       </c>
       <c r="B854" t="inlineStr"/>
       <c r="C854" t="n">
-        <v>34802</v>
+        <v>34803</v>
       </c>
       <c r="D854" t="n">
         <v>2215</v>
@@ -21857,7 +21857,7 @@
       </c>
       <c r="B855" t="inlineStr"/>
       <c r="C855" t="n">
-        <v>34681</v>
+        <v>34676</v>
       </c>
       <c r="D855" t="n">
         <v>693</v>
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B856" t="inlineStr"/>
       <c r="C856" t="n">
-        <v>34610</v>
+        <v>34598</v>
       </c>
       <c r="D856" t="n">
         <v>3241</v>
@@ -21911,7 +21911,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>34591</v>
+        <v>34599</v>
       </c>
       <c r="D857" t="n">
         <v>3110</v>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B858" t="inlineStr"/>
       <c r="C858" t="n">
-        <v>34564</v>
+        <v>34562</v>
       </c>
       <c r="D858" t="n">
         <v>644</v>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="B859" t="inlineStr"/>
       <c r="C859" t="n">
-        <v>34562</v>
+        <v>34555</v>
       </c>
       <c r="D859" t="n">
         <v>3103</v>
@@ -21984,7 +21984,7 @@
       </c>
       <c r="B860" t="inlineStr"/>
       <c r="C860" t="n">
-        <v>34543</v>
+        <v>34542</v>
       </c>
       <c r="D860" t="n">
         <v>961</v>
@@ -22007,7 +22007,7 @@
       </c>
       <c r="B861" t="inlineStr"/>
       <c r="C861" t="n">
-        <v>34472</v>
+        <v>34474</v>
       </c>
       <c r="D861" t="n">
         <v>448</v>
@@ -22030,7 +22030,7 @@
       </c>
       <c r="B862" t="inlineStr"/>
       <c r="C862" t="n">
-        <v>34441</v>
+        <v>34436</v>
       </c>
       <c r="D862" t="n">
         <v>797</v>
@@ -22053,7 +22053,7 @@
       </c>
       <c r="B863" t="inlineStr"/>
       <c r="C863" t="n">
-        <v>34439</v>
+        <v>34435</v>
       </c>
       <c r="D863" t="n">
         <v>1665</v>
@@ -22076,7 +22076,7 @@
       </c>
       <c r="B864" t="inlineStr"/>
       <c r="C864" t="n">
-        <v>34415</v>
+        <v>34414</v>
       </c>
       <c r="D864" t="n">
         <v>1698</v>
@@ -22099,7 +22099,7 @@
       </c>
       <c r="B865" t="inlineStr"/>
       <c r="C865" t="n">
-        <v>34416</v>
+        <v>34413</v>
       </c>
       <c r="D865" t="n">
         <v>1687</v>
@@ -22122,7 +22122,7 @@
       </c>
       <c r="B866" t="inlineStr"/>
       <c r="C866" t="n">
-        <v>34404</v>
+        <v>34399</v>
       </c>
       <c r="D866" t="n">
         <v>2278</v>
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>34354</v>
+        <v>34355</v>
       </c>
       <c r="D867" t="n">
         <v>1421</v>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="B868" t="inlineStr"/>
       <c r="C868" t="n">
-        <v>34344</v>
+        <v>34345</v>
       </c>
       <c r="D868" t="n">
         <v>357</v>
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B869" t="inlineStr"/>
       <c r="C869" t="n">
-        <v>34245</v>
+        <v>34238</v>
       </c>
       <c r="D869" t="n">
         <v>609</v>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="B870" t="inlineStr"/>
       <c r="C870" t="n">
-        <v>34196</v>
+        <v>34202</v>
       </c>
       <c r="D870" t="n">
         <v>1884</v>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="B871" t="inlineStr"/>
       <c r="C871" t="n">
-        <v>34205</v>
+        <v>34202</v>
       </c>
       <c r="D871" t="n">
         <v>361</v>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="B872" t="inlineStr"/>
       <c r="C872" t="n">
-        <v>34193</v>
+        <v>34188</v>
       </c>
       <c r="D872" t="n">
         <v>207</v>
@@ -22294,7 +22294,7 @@
       </c>
       <c r="B873" t="inlineStr"/>
       <c r="C873" t="n">
-        <v>34174</v>
+        <v>34177</v>
       </c>
       <c r="D873" t="n">
         <v>1116</v>
@@ -22340,7 +22340,7 @@
       </c>
       <c r="B875" t="inlineStr"/>
       <c r="C875" t="n">
-        <v>34151</v>
+        <v>34149</v>
       </c>
       <c r="D875" t="n">
         <v>282</v>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="B876" t="inlineStr"/>
       <c r="C876" t="n">
-        <v>34150</v>
+        <v>34156</v>
       </c>
       <c r="D876" t="n">
         <v>609</v>
@@ -22394,7 +22394,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>34138</v>
+        <v>34142</v>
       </c>
       <c r="D877" t="n">
         <v>1619</v>
@@ -22429,7 +22429,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>34137</v>
+        <v>34142</v>
       </c>
       <c r="D878" t="n">
         <v>3740</v>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B879" t="inlineStr"/>
       <c r="C879" t="n">
-        <v>34127</v>
+        <v>34132</v>
       </c>
       <c r="D879" t="n">
         <v>1544</v>
@@ -22479,7 +22479,7 @@
       </c>
       <c r="B880" t="inlineStr"/>
       <c r="C880" t="n">
-        <v>34129</v>
+        <v>34119</v>
       </c>
       <c r="D880" t="n">
         <v>666</v>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="B881" t="inlineStr"/>
       <c r="C881" t="n">
-        <v>34099</v>
+        <v>34095</v>
       </c>
       <c r="D881" t="n">
         <v>1939</v>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="B882" t="inlineStr"/>
       <c r="C882" t="n">
-        <v>34077</v>
+        <v>34090</v>
       </c>
       <c r="D882" t="n">
         <v>185</v>
@@ -22553,7 +22553,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>34076</v>
+        <v>34084</v>
       </c>
       <c r="D883" t="n">
         <v>814</v>
@@ -22580,7 +22580,7 @@
       </c>
       <c r="B884" t="inlineStr"/>
       <c r="C884" t="n">
-        <v>34055</v>
+        <v>34051</v>
       </c>
       <c r="D884" t="n">
         <v>970</v>
@@ -22642,7 +22642,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>34009</v>
+        <v>34004</v>
       </c>
       <c r="D886" t="n">
         <v>1212</v>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="B887" t="inlineStr"/>
       <c r="C887" t="n">
-        <v>33935</v>
+        <v>33933</v>
       </c>
       <c r="D887" t="n">
         <v>707</v>
@@ -22692,7 +22692,7 @@
       </c>
       <c r="B888" t="inlineStr"/>
       <c r="C888" t="n">
-        <v>33921</v>
+        <v>33919</v>
       </c>
       <c r="D888" t="n">
         <v>406</v>
@@ -22715,7 +22715,7 @@
       </c>
       <c r="B889" t="inlineStr"/>
       <c r="C889" t="n">
-        <v>33873</v>
+        <v>33884</v>
       </c>
       <c r="D889" t="n">
         <v>536</v>
@@ -22738,7 +22738,7 @@
       </c>
       <c r="B890" t="inlineStr"/>
       <c r="C890" t="n">
-        <v>33834</v>
+        <v>33832</v>
       </c>
       <c r="D890" t="n">
         <v>558</v>
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B891" t="inlineStr"/>
       <c r="C891" t="n">
-        <v>33809</v>
+        <v>33807</v>
       </c>
       <c r="D891" t="n">
         <v>2211</v>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B892" t="inlineStr"/>
       <c r="C892" t="n">
-        <v>33762</v>
+        <v>33768</v>
       </c>
       <c r="D892" t="n">
         <v>1260</v>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="B893" t="inlineStr"/>
       <c r="C893" t="n">
-        <v>33752</v>
+        <v>33762</v>
       </c>
       <c r="D893" t="n">
         <v>2448</v>
@@ -22839,7 +22839,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>33721</v>
+        <v>33714</v>
       </c>
       <c r="D894" t="n">
         <v>2359</v>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="B895" t="inlineStr"/>
       <c r="C895" t="n">
-        <v>33714</v>
+        <v>33712</v>
       </c>
       <c r="D895" t="n">
         <v>693</v>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B896" t="inlineStr"/>
       <c r="C896" t="n">
-        <v>33697</v>
+        <v>33698</v>
       </c>
       <c r="D896" t="n">
         <v>1107</v>
@@ -22912,7 +22912,7 @@
       </c>
       <c r="B897" t="inlineStr"/>
       <c r="C897" t="n">
-        <v>33673</v>
+        <v>33682</v>
       </c>
       <c r="D897" t="n">
         <v>924</v>
@@ -22957,7 +22957,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>33666</v>
+        <v>33676</v>
       </c>
       <c r="D898" t="n">
         <v>1669</v>
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B899" t="inlineStr"/>
       <c r="C899" t="n">
-        <v>33623</v>
+        <v>33618</v>
       </c>
       <c r="D899" t="n">
         <v>309</v>
@@ -23007,7 +23007,7 @@
       </c>
       <c r="B900" t="inlineStr"/>
       <c r="C900" t="n">
-        <v>33620</v>
+        <v>33612</v>
       </c>
       <c r="D900" t="n">
         <v>2569</v>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="B901" t="inlineStr"/>
       <c r="C901" t="n">
-        <v>33579</v>
+        <v>33564</v>
       </c>
       <c r="D901" t="n">
         <v>1475</v>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="B902" t="inlineStr"/>
       <c r="C902" t="n">
-        <v>33547</v>
+        <v>33555</v>
       </c>
       <c r="D902" t="n">
         <v>457</v>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="B903" t="inlineStr"/>
       <c r="C903" t="n">
-        <v>33546</v>
+        <v>33560</v>
       </c>
       <c r="D903" t="n">
         <v>155</v>
@@ -23099,7 +23099,7 @@
       </c>
       <c r="B904" t="inlineStr"/>
       <c r="C904" t="n">
-        <v>33543</v>
+        <v>33548</v>
       </c>
       <c r="D904" t="n">
         <v>3174</v>
@@ -23122,7 +23122,7 @@
       </c>
       <c r="B905" t="inlineStr"/>
       <c r="C905" t="n">
-        <v>33538</v>
+        <v>33533</v>
       </c>
       <c r="D905" t="n">
         <v>1246</v>
@@ -23145,7 +23145,7 @@
       </c>
       <c r="B906" t="inlineStr"/>
       <c r="C906" t="n">
-        <v>33513</v>
+        <v>33512</v>
       </c>
       <c r="D906" t="n">
         <v>409</v>
@@ -23168,7 +23168,7 @@
       </c>
       <c r="B907" t="inlineStr"/>
       <c r="C907" t="n">
-        <v>33501</v>
+        <v>33503</v>
       </c>
       <c r="D907" t="n">
         <v>1630</v>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="B908" t="inlineStr"/>
       <c r="C908" t="n">
-        <v>33498</v>
+        <v>33506</v>
       </c>
       <c r="D908" t="n">
         <v>1888</v>
@@ -23214,7 +23214,7 @@
       </c>
       <c r="B909" t="inlineStr"/>
       <c r="C909" t="n">
-        <v>33482</v>
+        <v>33481</v>
       </c>
       <c r="D909" t="n">
         <v>933</v>
@@ -23237,7 +23237,7 @@
       </c>
       <c r="B910" t="inlineStr"/>
       <c r="C910" t="n">
-        <v>33484</v>
+        <v>33480</v>
       </c>
       <c r="D910" t="n">
         <v>293</v>
@@ -23260,7 +23260,7 @@
       </c>
       <c r="B911" t="inlineStr"/>
       <c r="C911" t="n">
-        <v>33474</v>
+        <v>33478</v>
       </c>
       <c r="D911" t="n">
         <v>349</v>
@@ -23295,7 +23295,7 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>33408</v>
+        <v>33410</v>
       </c>
       <c r="D912" t="n">
         <v>4655</v>
@@ -23437,7 +23437,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>33398</v>
+        <v>33406</v>
       </c>
       <c r="D913" t="n">
         <v>1483</v>
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B914" t="inlineStr"/>
       <c r="C914" t="n">
-        <v>33401</v>
+        <v>33402</v>
       </c>
       <c r="D914" t="n">
         <v>576</v>
@@ -23487,7 +23487,7 @@
       </c>
       <c r="B915" t="inlineStr"/>
       <c r="C915" t="n">
-        <v>33384</v>
+        <v>33382</v>
       </c>
       <c r="D915" t="n">
         <v>641</v>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="B916" t="inlineStr"/>
       <c r="C916" t="n">
-        <v>33383</v>
+        <v>33384</v>
       </c>
       <c r="D916" t="n">
         <v>1870</v>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="B917" t="inlineStr"/>
       <c r="C917" t="n">
-        <v>33381</v>
+        <v>33387</v>
       </c>
       <c r="D917" t="n">
         <v>1003</v>
@@ -23556,7 +23556,7 @@
       </c>
       <c r="B918" t="inlineStr"/>
       <c r="C918" t="n">
-        <v>33340</v>
+        <v>33344</v>
       </c>
       <c r="D918" t="n">
         <v>641</v>
@@ -23579,7 +23579,7 @@
       </c>
       <c r="B919" t="inlineStr"/>
       <c r="C919" t="n">
-        <v>33333</v>
+        <v>33339</v>
       </c>
       <c r="D919" t="n">
         <v>770</v>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="B920" t="inlineStr"/>
       <c r="C920" t="n">
-        <v>33340</v>
+        <v>33335</v>
       </c>
       <c r="D920" t="n">
         <v>571</v>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="B921" t="inlineStr"/>
       <c r="C921" t="n">
-        <v>33287</v>
+        <v>33289</v>
       </c>
       <c r="D921" t="n">
         <v>596</v>
@@ -23654,7 +23654,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>33279</v>
+        <v>33286</v>
       </c>
       <c r="D922" t="n">
         <v>1630</v>
@@ -23681,7 +23681,7 @@
       </c>
       <c r="B923" t="inlineStr"/>
       <c r="C923" t="n">
-        <v>33273</v>
+        <v>33274</v>
       </c>
       <c r="D923" t="n">
         <v>405</v>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B924" t="inlineStr"/>
       <c r="C924" t="n">
-        <v>33277</v>
+        <v>33273</v>
       </c>
       <c r="D924" t="n">
         <v>1050</v>
@@ -23727,7 +23727,7 @@
       </c>
       <c r="B925" t="inlineStr"/>
       <c r="C925" t="n">
-        <v>33251</v>
+        <v>33247</v>
       </c>
       <c r="D925" t="n">
         <v>2209</v>
@@ -23750,7 +23750,7 @@
       </c>
       <c r="B926" t="inlineStr"/>
       <c r="C926" t="n">
-        <v>33216</v>
+        <v>33230</v>
       </c>
       <c r="D926" t="n">
         <v>722</v>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="B927" t="inlineStr"/>
       <c r="C927" t="n">
-        <v>33163</v>
+        <v>33161</v>
       </c>
       <c r="D927" t="n">
         <v>712</v>
@@ -23792,7 +23792,7 @@
       </c>
       <c r="B928" t="inlineStr"/>
       <c r="C928" t="n">
-        <v>33126</v>
+        <v>33132</v>
       </c>
       <c r="D928" t="n">
         <v>1071</v>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>33082</v>
+        <v>33073</v>
       </c>
       <c r="D930" t="n">
         <v>5565</v>
@@ -23878,7 +23878,7 @@
       </c>
       <c r="B931" t="inlineStr"/>
       <c r="C931" t="n">
-        <v>33056</v>
+        <v>33066</v>
       </c>
       <c r="D931" t="n">
         <v>869</v>
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B932" t="inlineStr"/>
       <c r="C932" t="n">
-        <v>33052</v>
+        <v>33044</v>
       </c>
       <c r="D932" t="n">
         <v>882</v>
@@ -23924,7 +23924,7 @@
       </c>
       <c r="B933" t="inlineStr"/>
       <c r="C933" t="n">
-        <v>33046</v>
+        <v>33044</v>
       </c>
       <c r="D933" t="n">
         <v>253</v>
@@ -23947,7 +23947,7 @@
       </c>
       <c r="B934" t="inlineStr"/>
       <c r="C934" t="n">
-        <v>33032</v>
+        <v>33036</v>
       </c>
       <c r="D934" t="n">
         <v>1278</v>
@@ -23970,7 +23970,7 @@
       </c>
       <c r="B935" t="inlineStr"/>
       <c r="C935" t="n">
-        <v>33030</v>
+        <v>33029</v>
       </c>
       <c r="D935" t="n">
         <v>514</v>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="B936" t="inlineStr"/>
       <c r="C936" t="n">
-        <v>33019</v>
+        <v>33018</v>
       </c>
       <c r="D936" t="n">
         <v>1967</v>
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B937" t="inlineStr"/>
       <c r="C937" t="n">
-        <v>33009</v>
+        <v>33014</v>
       </c>
       <c r="D937" t="n">
         <v>1033</v>
@@ -24039,7 +24039,7 @@
       </c>
       <c r="B938" t="inlineStr"/>
       <c r="C938" t="n">
-        <v>33000</v>
+        <v>32997</v>
       </c>
       <c r="D938" t="n">
         <v>450</v>
@@ -24062,7 +24062,7 @@
       </c>
       <c r="B939" t="inlineStr"/>
       <c r="C939" t="n">
-        <v>33002</v>
+        <v>32996</v>
       </c>
       <c r="D939" t="n">
         <v>1760</v>
@@ -24085,7 +24085,7 @@
       </c>
       <c r="B940" t="inlineStr"/>
       <c r="C940" t="n">
-        <v>32988</v>
+        <v>32987</v>
       </c>
       <c r="D940" t="n">
         <v>688</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="B941" t="inlineStr"/>
       <c r="C941" t="n">
-        <v>32934</v>
+        <v>32939</v>
       </c>
       <c r="D941" t="n">
         <v>3756</v>
@@ -24131,7 +24131,7 @@
       </c>
       <c r="B942" t="inlineStr"/>
       <c r="C942" t="n">
-        <v>32908</v>
+        <v>32910</v>
       </c>
       <c r="D942" t="n">
         <v>340</v>
@@ -24154,7 +24154,7 @@
       </c>
       <c r="B943" t="inlineStr"/>
       <c r="C943" t="n">
-        <v>32777</v>
+        <v>32769</v>
       </c>
       <c r="D943" t="n">
         <v>438</v>
@@ -24173,7 +24173,7 @@
       </c>
       <c r="B944" t="inlineStr"/>
       <c r="C944" t="n">
-        <v>32760</v>
+        <v>32761</v>
       </c>
       <c r="D944" t="n">
         <v>1329</v>
@@ -24201,7 +24201,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>32751</v>
+        <v>32741</v>
       </c>
       <c r="D945" t="n">
         <v>66559</v>
@@ -24228,7 +24228,7 @@
       </c>
       <c r="B946" t="inlineStr"/>
       <c r="C946" t="n">
-        <v>32735</v>
+        <v>32741</v>
       </c>
       <c r="D946" t="n">
         <v>1581</v>
@@ -24274,7 +24274,7 @@
       </c>
       <c r="B948" t="inlineStr"/>
       <c r="C948" t="n">
-        <v>32728</v>
+        <v>32720</v>
       </c>
       <c r="D948" t="n">
         <v>574</v>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="B949" t="inlineStr"/>
       <c r="C949" t="n">
-        <v>32694</v>
+        <v>32692</v>
       </c>
       <c r="D949" t="n">
         <v>1865</v>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B950" t="inlineStr"/>
       <c r="C950" t="n">
-        <v>32674</v>
+        <v>32671</v>
       </c>
       <c r="D950" t="n">
         <v>903</v>
@@ -24343,7 +24343,7 @@
       </c>
       <c r="B951" t="inlineStr"/>
       <c r="C951" t="n">
-        <v>32668</v>
+        <v>32662</v>
       </c>
       <c r="D951" t="n">
         <v>3990</v>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="B952" t="inlineStr"/>
       <c r="C952" t="n">
-        <v>32589</v>
+        <v>32591</v>
       </c>
       <c r="D952" t="n">
         <v>1048</v>
@@ -24389,7 +24389,7 @@
       </c>
       <c r="B953" t="inlineStr"/>
       <c r="C953" t="n">
-        <v>32559</v>
+        <v>32562</v>
       </c>
       <c r="D953" t="n">
         <v>2508</v>
@@ -24412,7 +24412,7 @@
       </c>
       <c r="B954" t="inlineStr"/>
       <c r="C954" t="n">
-        <v>32530</v>
+        <v>32537</v>
       </c>
       <c r="D954" t="n">
         <v>904</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="B955" t="inlineStr"/>
       <c r="C955" t="n">
-        <v>32523</v>
+        <v>32526</v>
       </c>
       <c r="D955" t="n">
         <v>733</v>
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>32428</v>
+        <v>32426</v>
       </c>
       <c r="D956" t="n">
         <v>1999</v>
